--- a/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.946049002227061</v>
+      </c>
+      <c r="D3">
         <v>1.192705046652281</v>
-      </c>
-      <c r="D3">
-        <v>0.9460490022270609</v>
       </c>
       <c r="E3">
         <v>1.088343051181828</v>
       </c>
       <c r="F3">
+        <v>0.946049002227061</v>
+      </c>
+      <c r="G3">
+        <v>1.062786423740895</v>
+      </c>
+      <c r="H3">
         <v>1.192705046652281</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.956520465309969</v>
+      </c>
+      <c r="J3">
         <v>0.9761996716014508</v>
-      </c>
-      <c r="H3">
-        <v>0.956520465309969</v>
-      </c>
-      <c r="I3">
-        <v>1.062786423740895</v>
-      </c>
-      <c r="J3">
-        <v>0.9460490022270609</v>
       </c>
       <c r="K3">
         <v>1.192705046652281</v>
@@ -650,10 +662,10 @@
         <v>1.017196026704444</v>
       </c>
       <c r="O3">
-        <v>0.9969708395729525</v>
+        <v>0.9969708395729526</v>
       </c>
       <c r="P3">
-        <v>1.075699033353723</v>
+        <v>1.075699033353724</v>
       </c>
       <c r="Q3">
         <v>1.075699033353723</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9680539446822281</v>
+      </c>
+      <c r="D4">
         <v>1.425023186308709</v>
-      </c>
-      <c r="D4">
-        <v>0.9680539446822281</v>
       </c>
       <c r="E4">
         <v>1.144824892581602</v>
       </c>
       <c r="F4">
+        <v>0.9680539446822281</v>
+      </c>
+      <c r="G4">
+        <v>1.16503995001841</v>
+      </c>
+      <c r="H4">
         <v>1.425023186308709</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.8991923623970581</v>
+      </c>
+      <c r="J4">
         <v>1.006775023768559</v>
-      </c>
-      <c r="H4">
-        <v>0.8991923623970581</v>
-      </c>
-      <c r="I4">
-        <v>1.16503995001841</v>
-      </c>
-      <c r="J4">
-        <v>0.9680539446822281</v>
       </c>
       <c r="K4">
         <v>1.425023186308709</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.292389985797389</v>
+      </c>
+      <c r="D5">
         <v>1.996086042624897</v>
-      </c>
-      <c r="D5">
-        <v>1.292389985797389</v>
       </c>
       <c r="E5">
         <v>1.252866903940491</v>
       </c>
       <c r="F5">
+        <v>1.292389985797389</v>
+      </c>
+      <c r="G5">
+        <v>1.570083360901448</v>
+      </c>
+      <c r="H5">
         <v>1.996086042624897</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.7977075550076881</v>
+      </c>
+      <c r="J5">
         <v>1.19608874617459</v>
-      </c>
-      <c r="H5">
-        <v>0.7977075550076881</v>
-      </c>
-      <c r="I5">
-        <v>1.570083360901448</v>
-      </c>
-      <c r="J5">
-        <v>1.292389985797389</v>
       </c>
       <c r="K5">
         <v>1.996086042624897</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.1722366142815758</v>
+      </c>
+      <c r="D6">
         <v>3.607171610231858</v>
-      </c>
-      <c r="D6">
-        <v>0.1722366142815758</v>
       </c>
       <c r="E6">
         <v>1.863684788338591</v>
       </c>
       <c r="F6">
+        <v>0.1722366142815758</v>
+      </c>
+      <c r="G6">
+        <v>1.727401532491703</v>
+      </c>
+      <c r="H6">
         <v>3.607171610231858</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.9086818222999117</v>
+      </c>
+      <c r="J6">
         <v>0.8989949914896787</v>
-      </c>
-      <c r="H6">
-        <v>0.9086818222999117</v>
-      </c>
-      <c r="I6">
-        <v>1.727401532491703</v>
-      </c>
-      <c r="J6">
-        <v>0.1722366142815758</v>
       </c>
       <c r="K6">
         <v>3.607171610231858</v>
@@ -862,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9981058419267229</v>
+      </c>
+      <c r="D7">
         <v>1.003341398730923</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9989694248600068</v>
+      </c>
+      <c r="F7">
         <v>0.9981058419267229</v>
       </c>
-      <c r="E7">
-        <v>0.9989694248600067</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>0.9985622397254275</v>
+      </c>
+      <c r="H7">
         <v>1.003341398730923</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>0.9979160185133736</v>
+      </c>
+      <c r="J7">
         <v>1.03937041700876</v>
-      </c>
-      <c r="H7">
-        <v>0.9979160185133752</v>
-      </c>
-      <c r="I7">
-        <v>0.9985622397254287</v>
-      </c>
-      <c r="J7">
-        <v>0.9981058419267229</v>
       </c>
       <c r="K7">
         <v>1.003341398730923</v>
       </c>
       <c r="L7">
-        <v>0.9989694248600067</v>
+        <v>0.9989694248600068</v>
       </c>
       <c r="M7">
         <v>0.9985376333933649</v>
@@ -898,7 +910,7 @@
         <v>0.9985376333933649</v>
       </c>
       <c r="O7">
-        <v>0.9983304284333684</v>
+        <v>0.9983304284333677</v>
       </c>
       <c r="P7">
         <v>1.000138888505884</v>
@@ -924,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014824170402112</v>
+        <v>0.9945644200922633</v>
       </c>
       <c r="D8">
-        <v>0.9945644200922635</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="E8">
-        <v>0.9986588358774716</v>
+        <v>0.9986588358774713</v>
       </c>
       <c r="F8">
-        <v>1.014824170402112</v>
+        <v>0.9945644200922633</v>
       </c>
       <c r="G8">
-        <v>1.086351679428616</v>
+        <v>0.9972445723898169</v>
       </c>
       <c r="H8">
-        <v>0.9994027152798942</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="I8">
-        <v>0.9972445723898182</v>
+        <v>0.9994027152798937</v>
       </c>
       <c r="J8">
-        <v>0.9945644200922635</v>
+        <v>1.086351679428624</v>
       </c>
       <c r="K8">
-        <v>1.014824170402112</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="L8">
-        <v>0.9986588358774716</v>
+        <v>0.9986588358774713</v>
       </c>
       <c r="M8">
-        <v>0.9966116279848676</v>
+        <v>0.9966116279848674</v>
       </c>
       <c r="N8">
-        <v>0.9966116279848676</v>
+        <v>0.9966116279848674</v>
       </c>
       <c r="O8">
-        <v>0.9975419904165431</v>
+        <v>0.9975419904165429</v>
       </c>
       <c r="P8">
         <v>1.002682475457282</v>
@@ -969,13 +981,13 @@
         <v>1.002682475457282</v>
       </c>
       <c r="R8">
-        <v>1.00571789919349</v>
+        <v>1.005717899193489</v>
       </c>
       <c r="S8">
-        <v>1.00571789919349</v>
+        <v>1.005717899193489</v>
       </c>
       <c r="T8">
-        <v>1.015174398911696</v>
+        <v>1.015174398911697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9939673118058183</v>
+      </c>
+      <c r="D9">
         <v>1.077689568082015</v>
-      </c>
-      <c r="D9">
-        <v>0.9939673118058183</v>
       </c>
       <c r="E9">
         <v>1.015558768595609</v>
       </c>
       <c r="F9">
+        <v>0.9939673118058183</v>
+      </c>
+      <c r="G9">
+        <v>0.9928682231143192</v>
+      </c>
+      <c r="H9">
         <v>1.077689568082015</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.9962393497784621</v>
+      </c>
+      <c r="J9">
         <v>1.087967701090985</v>
-      </c>
-      <c r="H9">
-        <v>0.9962393497784621</v>
-      </c>
-      <c r="I9">
-        <v>0.9928682231143192</v>
-      </c>
-      <c r="J9">
-        <v>0.9939673118058183</v>
       </c>
       <c r="K9">
         <v>1.077689568082015</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000535099951031</v>
+      </c>
+      <c r="D10">
         <v>1.085169674192831</v>
-      </c>
-      <c r="D10">
-        <v>1.000535099951031</v>
       </c>
       <c r="E10">
         <v>1.001090131440143</v>
       </c>
       <c r="F10">
+        <v>1.000535099951031</v>
+      </c>
+      <c r="G10">
+        <v>0.9990031101531226</v>
+      </c>
+      <c r="H10">
         <v>1.085169674192831</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.9909935926641444</v>
+      </c>
+      <c r="J10">
         <v>1.250740553782315</v>
-      </c>
-      <c r="H10">
-        <v>0.9909935926641444</v>
-      </c>
-      <c r="I10">
-        <v>0.9990031101531227</v>
-      </c>
-      <c r="J10">
-        <v>1.000535099951031</v>
       </c>
       <c r="K10">
         <v>1.085169674192831</v>
@@ -1110,43 +1122,43 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9085858999506858</v>
+      </c>
+      <c r="D11">
         <v>1.284877007566491</v>
       </c>
-      <c r="D11">
-        <v>0.9085858999506856</v>
-      </c>
       <c r="E11">
-        <v>1.052837139769906</v>
+        <v>1.052837139769907</v>
       </c>
       <c r="F11">
+        <v>0.9085858999506858</v>
+      </c>
+      <c r="G11">
+        <v>0.9922498319747884</v>
+      </c>
+      <c r="H11">
         <v>1.284877007566491</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0.9184263034405413</v>
+      </c>
+      <c r="J11">
         <v>1.323597746066788</v>
-      </c>
-      <c r="H11">
-        <v>0.9184263034405413</v>
-      </c>
-      <c r="I11">
-        <v>0.9922498319747884</v>
-      </c>
-      <c r="J11">
-        <v>0.9085858999506856</v>
       </c>
       <c r="K11">
         <v>1.284877007566491</v>
       </c>
       <c r="L11">
-        <v>1.052837139769906</v>
+        <v>1.052837139769907</v>
       </c>
       <c r="M11">
-        <v>0.9807115198602958</v>
+        <v>0.9807115198602963</v>
       </c>
       <c r="N11">
-        <v>0.9807115198602958</v>
+        <v>0.9807115198602963</v>
       </c>
       <c r="O11">
-        <v>0.959949781053711</v>
+        <v>0.9599497810537113</v>
       </c>
       <c r="P11">
         <v>1.082100015762361</v>
@@ -1172,46 +1184,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.839021103484144</v>
+        <v>0.2732069801418922</v>
       </c>
       <c r="D12">
-        <v>0.2732069801418919</v>
+        <v>1.839021103484145</v>
       </c>
       <c r="E12">
-        <v>0.5352548914693844</v>
+        <v>0.5352548914693838</v>
       </c>
       <c r="F12">
-        <v>1.839021103484144</v>
+        <v>0.2732069801418922</v>
       </c>
       <c r="G12">
-        <v>0.001005863119924907</v>
+        <v>1.076081266117525</v>
       </c>
       <c r="H12">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="I12">
         <v>1.280399484863902</v>
       </c>
-      <c r="I12">
-        <v>1.076081266117525</v>
-      </c>
       <c r="J12">
-        <v>0.2732069801418919</v>
+        <v>0.001005863119924909</v>
       </c>
       <c r="K12">
-        <v>1.839021103484144</v>
+        <v>1.839021103484145</v>
       </c>
       <c r="L12">
-        <v>0.5352548914693844</v>
+        <v>0.5352548914693838</v>
       </c>
       <c r="M12">
-        <v>0.4042309358056382</v>
+        <v>0.404230935805638</v>
       </c>
       <c r="N12">
-        <v>0.4042309358056382</v>
+        <v>0.404230935805638</v>
       </c>
       <c r="O12">
-        <v>0.6962871188250593</v>
+        <v>0.6962871188250591</v>
       </c>
       <c r="P12">
-        <v>0.8824943250318067</v>
+        <v>0.8824943250318068</v>
       </c>
       <c r="Q12">
         <v>0.8824943250318068</v>
@@ -1234,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.59856177344524</v>
+      </c>
+      <c r="D13">
         <v>0.9996289756698536</v>
       </c>
-      <c r="D13">
-        <v>1.598561773445241</v>
-      </c>
       <c r="E13">
-        <v>1.255764067592257</v>
+        <v>1.255764067592258</v>
       </c>
       <c r="F13">
+        <v>1.59856177344524</v>
+      </c>
+      <c r="G13">
+        <v>1.063621865688289</v>
+      </c>
+      <c r="H13">
         <v>0.9996289756698536</v>
       </c>
-      <c r="G13">
-        <v>0.4158280523834149</v>
-      </c>
-      <c r="H13">
-        <v>0.6971390918901106</v>
-      </c>
       <c r="I13">
-        <v>1.06362186568829</v>
+        <v>0.6971390918901105</v>
       </c>
       <c r="J13">
-        <v>1.598561773445241</v>
+        <v>0.4158280523834147</v>
       </c>
       <c r="K13">
         <v>0.9996289756698536</v>
       </c>
       <c r="L13">
-        <v>1.255764067592257</v>
+        <v>1.255764067592258</v>
       </c>
       <c r="M13">
         <v>1.427162920518749</v>
@@ -1273,19 +1285,19 @@
         <v>1.183821644309203</v>
       </c>
       <c r="P13">
-        <v>1.284651605569118</v>
+        <v>1.284651605569117</v>
       </c>
       <c r="Q13">
-        <v>1.284651605569118</v>
+        <v>1.284651605569117</v>
       </c>
       <c r="R13">
-        <v>1.213395948094302</v>
+        <v>1.213395948094301</v>
       </c>
       <c r="S13">
-        <v>1.213395948094302</v>
+        <v>1.213395948094301</v>
       </c>
       <c r="T13">
-        <v>1.005090637778195</v>
+        <v>1.005090637778194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3628399120102928</v>
+        <v>0.9199036601382922</v>
       </c>
       <c r="D14">
-        <v>0.9199036601382931</v>
+        <v>0.362839912010293</v>
       </c>
       <c r="E14">
-        <v>0.6841111814331515</v>
+        <v>0.684111181433151</v>
       </c>
       <c r="F14">
-        <v>0.3628399120102928</v>
+        <v>0.9199036601382922</v>
       </c>
       <c r="G14">
-        <v>0.0007744251273875179</v>
+        <v>0.7786843792056468</v>
       </c>
       <c r="H14">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="I14">
         <v>1.655163882683691</v>
       </c>
-      <c r="I14">
-        <v>0.7786843792056469</v>
-      </c>
       <c r="J14">
-        <v>0.9199036601382931</v>
+        <v>0.0007744251273875196</v>
       </c>
       <c r="K14">
-        <v>0.3628399120102928</v>
+        <v>0.362839912010293</v>
       </c>
       <c r="L14">
-        <v>0.6841111814331515</v>
+        <v>0.684111181433151</v>
       </c>
       <c r="M14">
-        <v>0.8020074207857223</v>
+        <v>0.8020074207857215</v>
       </c>
       <c r="N14">
-        <v>0.8020074207857223</v>
+        <v>0.8020074207857215</v>
       </c>
       <c r="O14">
         <v>1.086392908085045</v>
       </c>
       <c r="P14">
-        <v>0.6556182511939125</v>
+        <v>0.655618251193912</v>
       </c>
       <c r="Q14">
-        <v>0.6556182511939125</v>
+        <v>0.655618251193912</v>
       </c>
       <c r="R14">
-        <v>0.5824236663980076</v>
+        <v>0.5824236663980074</v>
       </c>
       <c r="S14">
-        <v>0.5824236663980076</v>
+        <v>0.5824236663980074</v>
       </c>
       <c r="T14">
-        <v>0.7335795734330771</v>
+        <v>0.7335795734330769</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3944820215644056</v>
+        <v>0.9184736020164749</v>
       </c>
       <c r="D15">
-        <v>0.9184736020164748</v>
+        <v>0.3944820215644057</v>
       </c>
       <c r="E15">
         <v>1.219059604485593</v>
       </c>
       <c r="F15">
-        <v>0.3944820215644056</v>
+        <v>0.9184736020164749</v>
       </c>
       <c r="G15">
-        <v>0.4993551020773962</v>
+        <v>0.6051932528975573</v>
       </c>
       <c r="H15">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="I15">
         <v>1.105815289347597</v>
       </c>
-      <c r="I15">
-        <v>0.6051932528975573</v>
-      </c>
       <c r="J15">
-        <v>0.9184736020164748</v>
+        <v>0.4993551020773961</v>
       </c>
       <c r="K15">
-        <v>0.3944820215644056</v>
+        <v>0.3944820215644057</v>
       </c>
       <c r="L15">
         <v>1.219059604485593</v>
@@ -1397,16 +1409,16 @@
         <v>1.081116165283222</v>
       </c>
       <c r="P15">
-        <v>0.8440050760221576</v>
+        <v>0.8440050760221579</v>
       </c>
       <c r="Q15">
-        <v>0.8440050760221577</v>
+        <v>0.8440050760221579</v>
       </c>
       <c r="R15">
-        <v>0.7316243124077197</v>
+        <v>0.7316243124077199</v>
       </c>
       <c r="S15">
-        <v>0.7316243124077197</v>
+        <v>0.7316243124077199</v>
       </c>
       <c r="T15">
         <v>0.790396478731504</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9701711638566594</v>
+        <v>0.1936821584779598</v>
       </c>
       <c r="D16">
-        <v>1.000751668414286</v>
+        <v>4.271041169050475</v>
       </c>
       <c r="E16">
-        <v>1.020319112992273</v>
+        <v>2.276287459286661</v>
       </c>
       <c r="F16">
-        <v>0.9701711638566594</v>
+        <v>0.1936821584779598</v>
       </c>
       <c r="G16">
-        <v>1.027961724883409</v>
+        <v>2.265036974001261</v>
       </c>
       <c r="H16">
-        <v>0.9998092641672222</v>
+        <v>4.271041169050475</v>
       </c>
       <c r="I16">
-        <v>0.999808078061181</v>
+        <v>0.2014993833589774</v>
       </c>
       <c r="J16">
-        <v>1.000751668414286</v>
+        <v>0.8107490901543931</v>
       </c>
       <c r="K16">
-        <v>0.9701711638566594</v>
+        <v>4.271041169050475</v>
       </c>
       <c r="L16">
-        <v>1.020319112992273</v>
+        <v>2.276287459286661</v>
       </c>
       <c r="M16">
-        <v>1.01053539070328</v>
+        <v>1.23498480888231</v>
       </c>
       <c r="N16">
-        <v>1.01053539070328</v>
+        <v>1.23498480888231</v>
       </c>
       <c r="O16">
-        <v>1.006960015191261</v>
+        <v>0.8904896670411994</v>
       </c>
       <c r="P16">
-        <v>0.9970806484210731</v>
+        <v>2.247003595605032</v>
       </c>
       <c r="Q16">
-        <v>0.9970806484210731</v>
+        <v>2.247003595605032</v>
       </c>
       <c r="R16">
-        <v>0.9903532772799697</v>
+        <v>2.753012988966393</v>
       </c>
       <c r="S16">
-        <v>0.9903532772799697</v>
+        <v>2.753012988966393</v>
       </c>
       <c r="T16">
-        <v>1.003136835395839</v>
+        <v>1.669716039054955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.075172385649687</v>
+        <v>0.3881963496660493</v>
       </c>
       <c r="D17">
-        <v>0.9993272219819629</v>
+        <v>3.1529842542316</v>
       </c>
       <c r="E17">
-        <v>0.9343315322384244</v>
+        <v>1.855802118164345</v>
       </c>
       <c r="F17">
-        <v>1.075172385649687</v>
+        <v>0.3881963496660493</v>
       </c>
       <c r="G17">
-        <v>1.023305419677768</v>
+        <v>1.831009973051619</v>
       </c>
       <c r="H17">
-        <v>0.993176221886888</v>
+        <v>3.1529842542316</v>
       </c>
       <c r="I17">
-        <v>1.005494507369599</v>
+        <v>0.4029003196929428</v>
       </c>
       <c r="J17">
-        <v>0.9993272219819629</v>
+        <v>1.644744229757913</v>
       </c>
       <c r="K17">
-        <v>1.075172385649687</v>
+        <v>3.1529842542316</v>
       </c>
       <c r="L17">
-        <v>0.9343315322384244</v>
+        <v>1.855802118164345</v>
       </c>
       <c r="M17">
-        <v>0.9668293771101937</v>
+        <v>1.121999233915197</v>
       </c>
       <c r="N17">
-        <v>0.9668293771101937</v>
+        <v>1.121999233915197</v>
       </c>
       <c r="O17">
-        <v>0.9756116587024252</v>
+        <v>0.8822995958411123</v>
       </c>
       <c r="P17">
-        <v>1.002943713290025</v>
+        <v>1.798994240687332</v>
       </c>
       <c r="Q17">
-        <v>1.002943713290025</v>
+        <v>1.798994240687332</v>
       </c>
       <c r="R17">
-        <v>1.02100088137994</v>
+        <v>2.137491744073399</v>
       </c>
       <c r="S17">
-        <v>1.02100088137994</v>
+        <v>2.137491744073399</v>
       </c>
       <c r="T17">
-        <v>1.005134548134055</v>
+        <v>1.545939540760745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.345645936899724</v>
+        <v>0.7843805328024004</v>
       </c>
       <c r="D18">
-        <v>1.057852301414166</v>
+        <v>0.9624391241048</v>
       </c>
       <c r="E18">
-        <v>1.039696111087976</v>
+        <v>1.034424834289638</v>
       </c>
       <c r="F18">
-        <v>1.345645936899724</v>
+        <v>0.7843805328024004</v>
       </c>
       <c r="G18">
-        <v>1.019787663957193</v>
+        <v>0.9705355983886254</v>
       </c>
       <c r="H18">
-        <v>0.9837265172870311</v>
+        <v>0.9624391241048</v>
       </c>
       <c r="I18">
-        <v>1.099519235247021</v>
+        <v>0.7964201529954353</v>
       </c>
       <c r="J18">
-        <v>1.057852301414166</v>
+        <v>3.266633469974612</v>
       </c>
       <c r="K18">
-        <v>1.345645936899724</v>
+        <v>0.9624391241048</v>
       </c>
       <c r="L18">
-        <v>1.039696111087976</v>
+        <v>1.034424834289638</v>
       </c>
       <c r="M18">
-        <v>1.048774206251071</v>
+        <v>0.9094026835460194</v>
       </c>
       <c r="N18">
-        <v>1.048774206251071</v>
+        <v>0.9094026835460194</v>
       </c>
       <c r="O18">
-        <v>1.027091643263058</v>
+        <v>0.871741840029158</v>
       </c>
       <c r="P18">
-        <v>1.147731449800622</v>
+        <v>0.9270814970656129</v>
       </c>
       <c r="Q18">
-        <v>1.147731449800622</v>
+        <v>0.9270814970656129</v>
       </c>
       <c r="R18">
-        <v>1.197210071575397</v>
+        <v>0.9359209038254097</v>
       </c>
       <c r="S18">
-        <v>1.197210071575397</v>
+        <v>0.9359209038254097</v>
       </c>
       <c r="T18">
-        <v>1.091037960982185</v>
+        <v>1.302472285425919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.210455398316767</v>
+      </c>
+      <c r="D19">
+        <v>0.8391687435758558</v>
+      </c>
+      <c r="E19">
+        <v>0.9295984704943938</v>
+      </c>
+      <c r="F19">
+        <v>1.210455398316767</v>
+      </c>
+      <c r="G19">
+        <v>0.9684132719117692</v>
+      </c>
+      <c r="H19">
+        <v>0.8391687435758558</v>
+      </c>
+      <c r="I19">
+        <v>0.711899883523362</v>
+      </c>
+      <c r="J19">
+        <v>4.166533476041006</v>
+      </c>
+      <c r="K19">
+        <v>0.8391687435758558</v>
+      </c>
+      <c r="L19">
+        <v>0.9295984704943938</v>
+      </c>
+      <c r="M19">
+        <v>1.070026934405581</v>
+      </c>
+      <c r="N19">
+        <v>1.070026934405581</v>
+      </c>
+      <c r="O19">
+        <v>0.9506512507781744</v>
+      </c>
+      <c r="P19">
+        <v>0.9930742041290057</v>
+      </c>
+      <c r="Q19">
+        <v>0.9930742041290056</v>
+      </c>
+      <c r="R19">
+        <v>0.9545978389907182</v>
+      </c>
+      <c r="S19">
+        <v>0.9545978389907182</v>
+      </c>
+      <c r="T19">
+        <v>1.471011540643859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000751668414286</v>
+      </c>
+      <c r="D20">
+        <v>0.9701711638566595</v>
+      </c>
+      <c r="E20">
+        <v>1.020319112992274</v>
+      </c>
+      <c r="F20">
+        <v>1.000751668414286</v>
+      </c>
+      <c r="G20">
+        <v>0.9998080780611803</v>
+      </c>
+      <c r="H20">
+        <v>0.9701711638566595</v>
+      </c>
+      <c r="I20">
+        <v>0.9998092641672215</v>
+      </c>
+      <c r="J20">
+        <v>1.027961724883407</v>
+      </c>
+      <c r="K20">
+        <v>0.9701711638566595</v>
+      </c>
+      <c r="L20">
+        <v>1.020319112992274</v>
+      </c>
+      <c r="M20">
+        <v>1.01053539070328</v>
+      </c>
+      <c r="N20">
+        <v>1.01053539070328</v>
+      </c>
+      <c r="O20">
+        <v>1.00696001519126</v>
+      </c>
+      <c r="P20">
+        <v>0.9970806484210731</v>
+      </c>
+      <c r="Q20">
+        <v>0.9970806484210731</v>
+      </c>
+      <c r="R20">
+        <v>0.9903532772799697</v>
+      </c>
+      <c r="S20">
+        <v>0.9903532772799697</v>
+      </c>
+      <c r="T20">
+        <v>1.003136835395838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.999327221981962</v>
+      </c>
+      <c r="D21">
+        <v>1.075172385649689</v>
+      </c>
+      <c r="E21">
+        <v>0.934331532238425</v>
+      </c>
+      <c r="F21">
+        <v>0.999327221981962</v>
+      </c>
+      <c r="G21">
+        <v>1.005494507369599</v>
+      </c>
+      <c r="H21">
+        <v>1.075172385649689</v>
+      </c>
+      <c r="I21">
+        <v>0.9931762218868876</v>
+      </c>
+      <c r="J21">
+        <v>1.023305419677767</v>
+      </c>
+      <c r="K21">
+        <v>1.075172385649689</v>
+      </c>
+      <c r="L21">
+        <v>0.934331532238425</v>
+      </c>
+      <c r="M21">
+        <v>0.9668293771101935</v>
+      </c>
+      <c r="N21">
+        <v>0.9668293771101935</v>
+      </c>
+      <c r="O21">
+        <v>0.9756116587024248</v>
+      </c>
+      <c r="P21">
+        <v>1.002943713290025</v>
+      </c>
+      <c r="Q21">
+        <v>1.002943713290025</v>
+      </c>
+      <c r="R21">
+        <v>1.021000881379941</v>
+      </c>
+      <c r="S21">
+        <v>1.021000881379941</v>
+      </c>
+      <c r="T21">
+        <v>1.005134548134055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.057852301414167</v>
+      </c>
+      <c r="D22">
+        <v>1.345645936899726</v>
+      </c>
+      <c r="E22">
+        <v>1.039696111087978</v>
+      </c>
+      <c r="F22">
+        <v>1.057852301414167</v>
+      </c>
+      <c r="G22">
+        <v>1.099519235247022</v>
+      </c>
+      <c r="H22">
+        <v>1.345645936899726</v>
+      </c>
+      <c r="I22">
+        <v>0.9837265172870313</v>
+      </c>
+      <c r="J22">
+        <v>1.019787663957192</v>
+      </c>
+      <c r="K22">
+        <v>1.345645936899726</v>
+      </c>
+      <c r="L22">
+        <v>1.039696111087978</v>
+      </c>
+      <c r="M22">
+        <v>1.048774206251072</v>
+      </c>
+      <c r="N22">
+        <v>1.048774206251072</v>
+      </c>
+      <c r="O22">
+        <v>1.027091643263059</v>
+      </c>
+      <c r="P22">
+        <v>1.147731449800624</v>
+      </c>
+      <c r="Q22">
+        <v>1.147731449800624</v>
+      </c>
+      <c r="R22">
+        <v>1.197210071575399</v>
+      </c>
+      <c r="S22">
+        <v>1.197210071575399</v>
+      </c>
+      <c r="T22">
+        <v>1.091037960982186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.553843801497538</v>
+      </c>
+      <c r="D23">
         <v>0.74812012985624</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.124399133932055</v>
+      </c>
+      <c r="F23">
         <v>1.553843801497538</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.302897079418992</v>
+      </c>
+      <c r="H23">
+        <v>0.74812012985624</v>
+      </c>
+      <c r="I23">
+        <v>0.9067589015485351</v>
+      </c>
+      <c r="J23">
+        <v>1.371508485542208</v>
+      </c>
+      <c r="K23">
+        <v>0.74812012985624</v>
+      </c>
+      <c r="L23">
         <v>1.124399133932055</v>
       </c>
-      <c r="F19">
-        <v>0.74812012985624</v>
-      </c>
-      <c r="G19">
-        <v>1.371508485542208</v>
-      </c>
-      <c r="H19">
-        <v>0.9067589015485351</v>
-      </c>
-      <c r="I19">
-        <v>1.302897079418992</v>
-      </c>
-      <c r="J19">
-        <v>1.553843801497538</v>
-      </c>
-      <c r="K19">
-        <v>0.74812012985624</v>
-      </c>
-      <c r="L19">
-        <v>1.124399133932055</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.339121467714796</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.339121467714796</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.195000612326043</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.142121021761944</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.142121021761944</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.043620798785518</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.043620798785518</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.167921255299261</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.946049002227061</v>
+        <v>0.7312658233457493</v>
       </c>
       <c r="D3">
-        <v>1.192705046652281</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="E3">
-        <v>1.088343051181828</v>
+        <v>1.019363710135644</v>
       </c>
       <c r="F3">
-        <v>0.946049002227061</v>
+        <v>0.7312658233457493</v>
       </c>
       <c r="G3">
-        <v>1.062786423740895</v>
+        <v>0.9823545311356645</v>
       </c>
       <c r="H3">
-        <v>1.192705046652281</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="I3">
-        <v>0.956520465309969</v>
+        <v>0.762981707676165</v>
       </c>
       <c r="J3">
-        <v>0.9761996716014508</v>
+        <v>4.258274577398906</v>
       </c>
       <c r="K3">
-        <v>1.192705046652281</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="L3">
-        <v>1.088343051181828</v>
+        <v>1.019363710135644</v>
       </c>
       <c r="M3">
-        <v>1.017196026704444</v>
+        <v>0.8753147667406969</v>
       </c>
       <c r="N3">
-        <v>1.017196026704444</v>
+        <v>0.8753147667406969</v>
       </c>
       <c r="O3">
-        <v>0.9969708395729526</v>
+        <v>0.8378704137191862</v>
       </c>
       <c r="P3">
-        <v>1.075699033353724</v>
+        <v>0.9139573126378379</v>
       </c>
       <c r="Q3">
-        <v>1.075699033353723</v>
+        <v>0.9139573126378377</v>
       </c>
       <c r="R3">
-        <v>1.104950536678363</v>
+        <v>0.9332785855864083</v>
       </c>
       <c r="S3">
-        <v>1.104950536678363</v>
+        <v>0.9332785855864083</v>
       </c>
       <c r="T3">
-        <v>1.037100610118914</v>
+        <v>1.457580459020708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9680539446822281</v>
+        <v>0.7565336248434736</v>
       </c>
       <c r="D4">
-        <v>1.425023186308709</v>
+        <v>0.9327048779443685</v>
       </c>
       <c r="E4">
-        <v>1.144824892581602</v>
+        <v>1.016525225842973</v>
       </c>
       <c r="F4">
-        <v>0.9680539446822281</v>
+        <v>0.7565336248434736</v>
       </c>
       <c r="G4">
-        <v>1.16503995001841</v>
+        <v>0.9721457877483564</v>
       </c>
       <c r="H4">
-        <v>1.425023186308709</v>
+        <v>0.9327048779443685</v>
       </c>
       <c r="I4">
-        <v>0.8991923623970581</v>
+        <v>0.7868123814533367</v>
       </c>
       <c r="J4">
-        <v>1.006775023768559</v>
+        <v>3.73818623167044</v>
       </c>
       <c r="K4">
-        <v>1.425023186308709</v>
+        <v>0.9327048779443685</v>
       </c>
       <c r="L4">
-        <v>1.144824892581602</v>
+        <v>1.016525225842973</v>
       </c>
       <c r="M4">
-        <v>1.056439418631915</v>
+        <v>0.8865294253432232</v>
       </c>
       <c r="N4">
-        <v>1.056439418631915</v>
+        <v>0.8865294253432232</v>
       </c>
       <c r="O4">
-        <v>1.004023733220296</v>
+        <v>0.8532904107132611</v>
       </c>
       <c r="P4">
-        <v>1.179300674524179</v>
+        <v>0.9019212428769383</v>
       </c>
       <c r="Q4">
-        <v>1.17930067452418</v>
+        <v>0.9019212428769383</v>
       </c>
       <c r="R4">
-        <v>1.240731302470312</v>
+        <v>0.9096171516437959</v>
       </c>
       <c r="S4">
-        <v>1.240731302470312</v>
+        <v>0.9096171516437959</v>
       </c>
       <c r="T4">
-        <v>1.101484893292761</v>
+        <v>1.367151354917158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.292389985797389</v>
+        <v>0.654129837208636</v>
       </c>
       <c r="D5">
-        <v>1.996086042624897</v>
+        <v>1.13245472618976</v>
       </c>
       <c r="E5">
-        <v>1.252866903940491</v>
+        <v>1.077355502364258</v>
       </c>
       <c r="F5">
-        <v>1.292389985797389</v>
+        <v>0.654129837208636</v>
       </c>
       <c r="G5">
-        <v>1.570083360901448</v>
+        <v>1.031184161061455</v>
       </c>
       <c r="H5">
-        <v>1.996086042624897</v>
+        <v>1.13245472618976</v>
       </c>
       <c r="I5">
-        <v>0.7977075550076881</v>
+        <v>0.7148982772282966</v>
       </c>
       <c r="J5">
-        <v>1.19608874617459</v>
+        <v>5.434637140392817</v>
       </c>
       <c r="K5">
-        <v>1.996086042624897</v>
+        <v>1.13245472618976</v>
       </c>
       <c r="L5">
-        <v>1.252866903940491</v>
+        <v>1.077355502364258</v>
       </c>
       <c r="M5">
-        <v>1.27262844486894</v>
+        <v>0.865742669786447</v>
       </c>
       <c r="N5">
-        <v>1.27262844486894</v>
+        <v>0.865742669786447</v>
       </c>
       <c r="O5">
-        <v>1.114321481581856</v>
+        <v>0.8154612056003968</v>
       </c>
       <c r="P5">
-        <v>1.513780977454259</v>
+        <v>0.9546466885875513</v>
       </c>
       <c r="Q5">
-        <v>1.513780977454259</v>
+        <v>0.9546466885875512</v>
       </c>
       <c r="R5">
-        <v>1.634357243746919</v>
+        <v>0.9990986979881034</v>
       </c>
       <c r="S5">
-        <v>1.634357243746919</v>
+        <v>0.9990986979881034</v>
       </c>
       <c r="T5">
-        <v>1.350870432407751</v>
+        <v>1.67410994074087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.1722366142815758</v>
+        <v>0.5728828309746307</v>
       </c>
       <c r="D6">
-        <v>3.607171610231858</v>
+        <v>1.578349701404318</v>
       </c>
       <c r="E6">
-        <v>1.863684788338591</v>
+        <v>1.288579804511715</v>
       </c>
       <c r="F6">
-        <v>0.1722366142815758</v>
+        <v>0.5728828309746307</v>
       </c>
       <c r="G6">
-        <v>1.727401532491703</v>
+        <v>0.8100711758045456</v>
       </c>
       <c r="H6">
-        <v>3.607171610231858</v>
+        <v>1.578349701404318</v>
       </c>
       <c r="I6">
-        <v>0.9086818222999117</v>
+        <v>0.7226573490932954</v>
       </c>
       <c r="J6">
-        <v>0.8989949914896787</v>
+        <v>7.228610803516128</v>
       </c>
       <c r="K6">
-        <v>3.607171610231858</v>
+        <v>1.578349701404318</v>
       </c>
       <c r="L6">
-        <v>1.863684788338591</v>
+        <v>1.288579804511715</v>
       </c>
       <c r="M6">
-        <v>1.017960701310084</v>
+        <v>0.9307313177431729</v>
       </c>
       <c r="N6">
-        <v>1.017960701310084</v>
+        <v>0.9307313177431729</v>
       </c>
       <c r="O6">
-        <v>0.9815344083066929</v>
+        <v>0.8613733281932138</v>
       </c>
       <c r="P6">
-        <v>1.881031004284008</v>
+        <v>1.146604112296888</v>
       </c>
       <c r="Q6">
-        <v>1.881031004284008</v>
+        <v>1.146604112296888</v>
       </c>
       <c r="R6">
-        <v>2.312566155770971</v>
+        <v>1.254540509573745</v>
       </c>
       <c r="S6">
-        <v>2.312566155770971</v>
+        <v>1.254540509573745</v>
       </c>
       <c r="T6">
-        <v>1.52969522652222</v>
+        <v>2.033525277550772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9981058419267229</v>
+        <v>0.001014828270893844</v>
       </c>
       <c r="D7">
-        <v>1.003341398730923</v>
+        <v>1.971928757858053</v>
       </c>
       <c r="E7">
-        <v>0.9989694248600068</v>
+        <v>0.2952680798281537</v>
       </c>
       <c r="F7">
-        <v>0.9981058419267229</v>
+        <v>0.001014828270893844</v>
       </c>
       <c r="G7">
-        <v>0.9985622397254275</v>
+        <v>1.275575601800436</v>
       </c>
       <c r="H7">
-        <v>1.003341398730923</v>
+        <v>1.971928757858053</v>
       </c>
       <c r="I7">
-        <v>0.9979160185133736</v>
+        <v>0.4160021793690611</v>
       </c>
       <c r="J7">
-        <v>1.03937041700876</v>
+        <v>0.9590211393834507</v>
       </c>
       <c r="K7">
-        <v>1.003341398730923</v>
+        <v>1.971928757858053</v>
       </c>
       <c r="L7">
-        <v>0.9989694248600068</v>
+        <v>0.2952680798281537</v>
       </c>
       <c r="M7">
-        <v>0.9985376333933649</v>
+        <v>0.1481414540495238</v>
       </c>
       <c r="N7">
-        <v>0.9985376333933649</v>
+        <v>0.1481414540495238</v>
       </c>
       <c r="O7">
-        <v>0.9983304284333677</v>
+        <v>0.2374283624893695</v>
       </c>
       <c r="P7">
-        <v>1.000138888505884</v>
+        <v>0.7560705553190336</v>
       </c>
       <c r="Q7">
-        <v>1.000138888505884</v>
+        <v>0.7560705553190336</v>
       </c>
       <c r="R7">
-        <v>1.000939516062144</v>
+        <v>1.060035105953788</v>
       </c>
       <c r="S7">
-        <v>1.000939516062144</v>
+        <v>1.060035105953788</v>
       </c>
       <c r="T7">
-        <v>1.006044223460869</v>
+        <v>0.8198017644183414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9945644200922633</v>
+        <v>0.001022194121759652</v>
       </c>
       <c r="D8">
-        <v>1.014824170402111</v>
+        <v>2.018220644889492</v>
       </c>
       <c r="E8">
-        <v>0.9986588358774713</v>
+        <v>0.293315549327302</v>
       </c>
       <c r="F8">
-        <v>0.9945644200922633</v>
+        <v>0.001022194121759652</v>
       </c>
       <c r="G8">
-        <v>0.9972445723898169</v>
+        <v>1.267143397050756</v>
       </c>
       <c r="H8">
-        <v>1.014824170402111</v>
+        <v>2.018220644889492</v>
       </c>
       <c r="I8">
-        <v>0.9994027152798937</v>
+        <v>0.4137081903294755</v>
       </c>
       <c r="J8">
-        <v>1.086351679428624</v>
+        <v>1.090193179337291</v>
       </c>
       <c r="K8">
-        <v>1.014824170402111</v>
+        <v>2.018220644889492</v>
       </c>
       <c r="L8">
-        <v>0.9986588358774713</v>
+        <v>0.293315549327302</v>
       </c>
       <c r="M8">
-        <v>0.9966116279848674</v>
+        <v>0.1471688717245308</v>
       </c>
       <c r="N8">
-        <v>0.9966116279848674</v>
+        <v>0.1471688717245308</v>
       </c>
       <c r="O8">
-        <v>0.9975419904165429</v>
+        <v>0.2360153112595124</v>
       </c>
       <c r="P8">
-        <v>1.002682475457282</v>
+        <v>0.7708527961128512</v>
       </c>
       <c r="Q8">
-        <v>1.002682475457282</v>
+        <v>0.7708527961128513</v>
       </c>
       <c r="R8">
-        <v>1.005717899193489</v>
+        <v>1.082694758307011</v>
       </c>
       <c r="S8">
-        <v>1.005717899193489</v>
+        <v>1.082694758307011</v>
       </c>
       <c r="T8">
-        <v>1.015174398911697</v>
+        <v>0.8472671925093461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9939673118058183</v>
+        <v>0.001041266729544258</v>
       </c>
       <c r="D9">
-        <v>1.077689568082015</v>
+        <v>2.020720095127825</v>
       </c>
       <c r="E9">
-        <v>1.015558768595609</v>
+        <v>0.2914752192776743</v>
       </c>
       <c r="F9">
-        <v>0.9939673118058183</v>
+        <v>0.001041266729544258</v>
       </c>
       <c r="G9">
-        <v>0.9928682231143192</v>
+        <v>1.258966055359192</v>
       </c>
       <c r="H9">
-        <v>1.077689568082015</v>
+        <v>2.020720095127825</v>
       </c>
       <c r="I9">
-        <v>0.9962393497784621</v>
+        <v>0.4121476663934293</v>
       </c>
       <c r="J9">
-        <v>1.087967701090985</v>
+        <v>1.26960403953283</v>
       </c>
       <c r="K9">
-        <v>1.077689568082015</v>
+        <v>2.020720095127825</v>
       </c>
       <c r="L9">
-        <v>1.015558768595609</v>
+        <v>0.2914752192776743</v>
       </c>
       <c r="M9">
-        <v>1.004763040200713</v>
+        <v>0.1462582430036093</v>
       </c>
       <c r="N9">
-        <v>1.004763040200713</v>
+        <v>0.1462582430036093</v>
       </c>
       <c r="O9">
-        <v>1.001921810059963</v>
+        <v>0.2348880508002159</v>
       </c>
       <c r="P9">
-        <v>1.029071882827814</v>
+        <v>0.7710788603783478</v>
       </c>
       <c r="Q9">
-        <v>1.029071882827814</v>
+        <v>0.7710788603783478</v>
       </c>
       <c r="R9">
-        <v>1.041226304141365</v>
+        <v>1.083489169065717</v>
       </c>
       <c r="S9">
-        <v>1.041226304141365</v>
+        <v>1.083489169065717</v>
       </c>
       <c r="T9">
-        <v>1.027381820411202</v>
+        <v>0.8756590570700825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000535099951031</v>
+        <v>0.001096331986223544</v>
       </c>
       <c r="D10">
-        <v>1.085169674192831</v>
+        <v>2.271193196366249</v>
       </c>
       <c r="E10">
-        <v>1.001090131440143</v>
+        <v>0.2853818494574221</v>
       </c>
       <c r="F10">
-        <v>1.000535099951031</v>
+        <v>0.001096331986223544</v>
       </c>
       <c r="G10">
-        <v>0.9990031101531226</v>
+        <v>1.233552131139368</v>
       </c>
       <c r="H10">
-        <v>1.085169674192831</v>
+        <v>2.271193196366249</v>
       </c>
       <c r="I10">
-        <v>0.9909935926641444</v>
+        <v>0.4064730050335459</v>
       </c>
       <c r="J10">
-        <v>1.250740553782315</v>
+        <v>1.602980465818154</v>
       </c>
       <c r="K10">
-        <v>1.085169674192831</v>
+        <v>2.271193196366249</v>
       </c>
       <c r="L10">
-        <v>1.001090131440143</v>
+        <v>0.2853818494574221</v>
       </c>
       <c r="M10">
-        <v>1.000812615695587</v>
+        <v>0.1432390907218228</v>
       </c>
       <c r="N10">
-        <v>1.000812615695587</v>
+        <v>0.1432390907218228</v>
       </c>
       <c r="O10">
-        <v>0.9975396080184397</v>
+        <v>0.2309837288257305</v>
       </c>
       <c r="P10">
-        <v>1.028931635194669</v>
+        <v>0.8525571259366315</v>
       </c>
       <c r="Q10">
-        <v>1.028931635194668</v>
+        <v>0.8525571259366315</v>
       </c>
       <c r="R10">
-        <v>1.042991144944209</v>
+        <v>1.207216143544036</v>
       </c>
       <c r="S10">
-        <v>1.042991144944209</v>
+        <v>1.207216143544036</v>
       </c>
       <c r="T10">
-        <v>1.054588693697265</v>
+        <v>0.9667794966334938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9085858999506858</v>
+        <v>0.9518581875329304</v>
       </c>
       <c r="D11">
-        <v>1.284877007566491</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="E11">
-        <v>1.052837139769907</v>
+        <v>1.068697153060727</v>
       </c>
       <c r="F11">
-        <v>0.9085858999506858</v>
+        <v>0.9518581875329304</v>
       </c>
       <c r="G11">
-        <v>0.9922498319747884</v>
+        <v>1.078950078165327</v>
       </c>
       <c r="H11">
-        <v>1.284877007566491</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="I11">
-        <v>0.9184263034405413</v>
+        <v>0.9528833095128711</v>
       </c>
       <c r="J11">
-        <v>1.323597746066788</v>
+        <v>0.9719218545937904</v>
       </c>
       <c r="K11">
-        <v>1.284877007566491</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="L11">
-        <v>1.052837139769907</v>
+        <v>1.068697153060727</v>
       </c>
       <c r="M11">
-        <v>0.9807115198602963</v>
+        <v>1.010277670296829</v>
       </c>
       <c r="N11">
-        <v>0.9807115198602963</v>
+        <v>1.010277670296829</v>
       </c>
       <c r="O11">
-        <v>0.9599497810537113</v>
+        <v>0.9911462167021762</v>
       </c>
       <c r="P11">
-        <v>1.082100015762361</v>
+        <v>1.066474108784922</v>
       </c>
       <c r="Q11">
-        <v>1.082100015762361</v>
+        <v>1.066474108784922</v>
       </c>
       <c r="R11">
-        <v>1.132794263713393</v>
+        <v>1.094572328028969</v>
       </c>
       <c r="S11">
-        <v>1.132794263713393</v>
+        <v>1.094572328028969</v>
       </c>
       <c r="T11">
-        <v>1.080095654794867</v>
+        <v>1.033862928104459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.2732069801418922</v>
+        <v>0.9729763829815031</v>
       </c>
       <c r="D12">
-        <v>1.839021103484145</v>
+        <v>1.096570296123779</v>
       </c>
       <c r="E12">
-        <v>0.5352548914693838</v>
+        <v>1.031631243631696</v>
       </c>
       <c r="F12">
-        <v>0.2732069801418922</v>
+        <v>0.9729763829815031</v>
       </c>
       <c r="G12">
-        <v>1.076081266117525</v>
+        <v>1.033834844427824</v>
       </c>
       <c r="H12">
-        <v>1.839021103484145</v>
+        <v>1.096570296123779</v>
       </c>
       <c r="I12">
-        <v>1.280399484863902</v>
+        <v>0.9758194218182095</v>
       </c>
       <c r="J12">
-        <v>0.001005863119924909</v>
+        <v>0.9970924889443584</v>
       </c>
       <c r="K12">
-        <v>1.839021103484145</v>
+        <v>1.096570296123779</v>
       </c>
       <c r="L12">
-        <v>0.5352548914693838</v>
+        <v>1.031631243631696</v>
       </c>
       <c r="M12">
-        <v>0.404230935805638</v>
+        <v>1.0023038133066</v>
       </c>
       <c r="N12">
-        <v>0.404230935805638</v>
+        <v>1.0023038133066</v>
       </c>
       <c r="O12">
-        <v>0.6962871188250591</v>
+        <v>0.9934756828104696</v>
       </c>
       <c r="P12">
-        <v>0.8824943250318068</v>
+        <v>1.033725974245659</v>
       </c>
       <c r="Q12">
-        <v>0.8824943250318068</v>
+        <v>1.033725974245659</v>
       </c>
       <c r="R12">
-        <v>1.121626019644891</v>
+        <v>1.049437054715189</v>
       </c>
       <c r="S12">
-        <v>1.121626019644891</v>
+        <v>1.049437054715189</v>
       </c>
       <c r="T12">
-        <v>0.834161598199462</v>
+        <v>1.017987446321228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.59856177344524</v>
+        <v>0.8724486091435015</v>
       </c>
       <c r="D13">
-        <v>0.9996289756698536</v>
+        <v>1.373878320696059</v>
       </c>
       <c r="E13">
-        <v>1.255764067592258</v>
+        <v>1.183313559169549</v>
       </c>
       <c r="F13">
-        <v>1.59856177344524</v>
+        <v>0.8724486091435015</v>
       </c>
       <c r="G13">
-        <v>1.063621865688289</v>
+        <v>1.187059759255664</v>
       </c>
       <c r="H13">
-        <v>0.9996289756698536</v>
+        <v>1.373878320696059</v>
       </c>
       <c r="I13">
-        <v>0.6971390918901105</v>
+        <v>0.9142619998941963</v>
       </c>
       <c r="J13">
-        <v>0.4158280523834147</v>
+        <v>0.9940063215960994</v>
       </c>
       <c r="K13">
-        <v>0.9996289756698536</v>
+        <v>1.373878320696059</v>
       </c>
       <c r="L13">
-        <v>1.255764067592258</v>
+        <v>1.183313559169549</v>
       </c>
       <c r="M13">
-        <v>1.427162920518749</v>
+        <v>1.027881084156525</v>
       </c>
       <c r="N13">
-        <v>1.427162920518749</v>
+        <v>1.027881084156525</v>
       </c>
       <c r="O13">
-        <v>1.183821644309203</v>
+        <v>0.9900080560690823</v>
       </c>
       <c r="P13">
-        <v>1.284651605569117</v>
+        <v>1.14321349633637</v>
       </c>
       <c r="Q13">
-        <v>1.284651605569117</v>
+        <v>1.14321349633637</v>
       </c>
       <c r="R13">
-        <v>1.213395948094301</v>
+        <v>1.200879702426292</v>
       </c>
       <c r="S13">
-        <v>1.213395948094301</v>
+        <v>1.200879702426292</v>
       </c>
       <c r="T13">
-        <v>1.005090637778194</v>
+        <v>1.087494761625845</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9199036601382922</v>
+        <v>0.681826766252521</v>
       </c>
       <c r="D14">
-        <v>0.362839912010293</v>
+        <v>2.21927653105131</v>
       </c>
       <c r="E14">
-        <v>0.684111181433151</v>
+        <v>1.528560066285492</v>
       </c>
       <c r="F14">
-        <v>0.9199036601382922</v>
+        <v>0.681826766252521</v>
       </c>
       <c r="G14">
-        <v>0.7786843792056468</v>
+        <v>1.150421506690537</v>
       </c>
       <c r="H14">
-        <v>0.362839912010293</v>
+        <v>2.21927653105131</v>
       </c>
       <c r="I14">
-        <v>1.655163882683691</v>
+        <v>0.8514843297310817</v>
       </c>
       <c r="J14">
-        <v>0.0007744251273875196</v>
+        <v>1.022337647936101</v>
       </c>
       <c r="K14">
-        <v>0.362839912010293</v>
+        <v>2.21927653105131</v>
       </c>
       <c r="L14">
-        <v>0.684111181433151</v>
+        <v>1.528560066285492</v>
       </c>
       <c r="M14">
-        <v>0.8020074207857215</v>
+        <v>1.105193416269007</v>
       </c>
       <c r="N14">
-        <v>0.8020074207857215</v>
+        <v>1.105193416269007</v>
       </c>
       <c r="O14">
-        <v>1.086392908085045</v>
+        <v>1.020623720756365</v>
       </c>
       <c r="P14">
-        <v>0.655618251193912</v>
+        <v>1.476554454529775</v>
       </c>
       <c r="Q14">
-        <v>0.655618251193912</v>
+        <v>1.476554454529774</v>
       </c>
       <c r="R14">
-        <v>0.5824236663980074</v>
+        <v>1.662234973660158</v>
       </c>
       <c r="S14">
-        <v>0.5824236663980074</v>
+        <v>1.662234973660158</v>
       </c>
       <c r="T14">
-        <v>0.7335795734330769</v>
+        <v>1.242317807991174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9184736020164749</v>
+        <v>0.946049002227061</v>
       </c>
       <c r="D15">
-        <v>0.3944820215644057</v>
+        <v>1.192705046652281</v>
       </c>
       <c r="E15">
-        <v>1.219059604485593</v>
+        <v>1.088343051181828</v>
       </c>
       <c r="F15">
-        <v>0.9184736020164749</v>
+        <v>0.946049002227061</v>
       </c>
       <c r="G15">
-        <v>0.6051932528975573</v>
+        <v>1.062786423740895</v>
       </c>
       <c r="H15">
-        <v>0.3944820215644057</v>
+        <v>1.192705046652281</v>
       </c>
       <c r="I15">
-        <v>1.105815289347597</v>
+        <v>0.956520465309969</v>
       </c>
       <c r="J15">
-        <v>0.4993551020773961</v>
+        <v>0.9761996716014508</v>
       </c>
       <c r="K15">
-        <v>0.3944820215644057</v>
+        <v>1.192705046652281</v>
       </c>
       <c r="L15">
-        <v>1.219059604485593</v>
+        <v>1.088343051181828</v>
       </c>
       <c r="M15">
-        <v>1.068766603251034</v>
+        <v>1.017196026704444</v>
       </c>
       <c r="N15">
-        <v>1.068766603251034</v>
+        <v>1.017196026704444</v>
       </c>
       <c r="O15">
-        <v>1.081116165283222</v>
+        <v>0.9969708395729526</v>
       </c>
       <c r="P15">
-        <v>0.8440050760221579</v>
+        <v>1.075699033353724</v>
       </c>
       <c r="Q15">
-        <v>0.8440050760221579</v>
+        <v>1.075699033353723</v>
       </c>
       <c r="R15">
-        <v>0.7316243124077199</v>
+        <v>1.104950536678363</v>
       </c>
       <c r="S15">
-        <v>0.7316243124077199</v>
+        <v>1.104950536678363</v>
       </c>
       <c r="T15">
-        <v>0.790396478731504</v>
+        <v>1.037100610118914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1936821584779598</v>
+        <v>0.9680539446822281</v>
       </c>
       <c r="D16">
-        <v>4.271041169050475</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="E16">
-        <v>2.276287459286661</v>
+        <v>1.144824892581602</v>
       </c>
       <c r="F16">
-        <v>0.1936821584779598</v>
+        <v>0.9680539446822281</v>
       </c>
       <c r="G16">
-        <v>2.265036974001261</v>
+        <v>1.16503995001841</v>
       </c>
       <c r="H16">
-        <v>4.271041169050475</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="I16">
-        <v>0.2014993833589774</v>
+        <v>0.8991923623970581</v>
       </c>
       <c r="J16">
-        <v>0.8107490901543931</v>
+        <v>1.006775023768559</v>
       </c>
       <c r="K16">
-        <v>4.271041169050475</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="L16">
-        <v>2.276287459286661</v>
+        <v>1.144824892581602</v>
       </c>
       <c r="M16">
-        <v>1.23498480888231</v>
+        <v>1.056439418631915</v>
       </c>
       <c r="N16">
-        <v>1.23498480888231</v>
+        <v>1.056439418631915</v>
       </c>
       <c r="O16">
-        <v>0.8904896670411994</v>
+        <v>1.004023733220296</v>
       </c>
       <c r="P16">
-        <v>2.247003595605032</v>
+        <v>1.179300674524179</v>
       </c>
       <c r="Q16">
-        <v>2.247003595605032</v>
+        <v>1.17930067452418</v>
       </c>
       <c r="R16">
-        <v>2.753012988966393</v>
+        <v>1.240731302470312</v>
       </c>
       <c r="S16">
-        <v>2.753012988966393</v>
+        <v>1.240731302470312</v>
       </c>
       <c r="T16">
-        <v>1.669716039054955</v>
+        <v>1.101484893292761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3881963496660493</v>
+        <v>1.292389985797389</v>
       </c>
       <c r="D17">
-        <v>3.1529842542316</v>
+        <v>1.996086042624897</v>
       </c>
       <c r="E17">
-        <v>1.855802118164345</v>
+        <v>1.252866903940491</v>
       </c>
       <c r="F17">
-        <v>0.3881963496660493</v>
+        <v>1.292389985797389</v>
       </c>
       <c r="G17">
-        <v>1.831009973051619</v>
+        <v>1.570083360901448</v>
       </c>
       <c r="H17">
-        <v>3.1529842542316</v>
+        <v>1.996086042624897</v>
       </c>
       <c r="I17">
-        <v>0.4029003196929428</v>
+        <v>0.7977075550076881</v>
       </c>
       <c r="J17">
-        <v>1.644744229757913</v>
+        <v>1.19608874617459</v>
       </c>
       <c r="K17">
-        <v>3.1529842542316</v>
+        <v>1.996086042624897</v>
       </c>
       <c r="L17">
-        <v>1.855802118164345</v>
+        <v>1.252866903940491</v>
       </c>
       <c r="M17">
-        <v>1.121999233915197</v>
+        <v>1.27262844486894</v>
       </c>
       <c r="N17">
-        <v>1.121999233915197</v>
+        <v>1.27262844486894</v>
       </c>
       <c r="O17">
-        <v>0.8822995958411123</v>
+        <v>1.114321481581856</v>
       </c>
       <c r="P17">
-        <v>1.798994240687332</v>
+        <v>1.513780977454259</v>
       </c>
       <c r="Q17">
-        <v>1.798994240687332</v>
+        <v>1.513780977454259</v>
       </c>
       <c r="R17">
-        <v>2.137491744073399</v>
+        <v>1.634357243746919</v>
       </c>
       <c r="S17">
-        <v>2.137491744073399</v>
+        <v>1.634357243746919</v>
       </c>
       <c r="T17">
-        <v>1.545939540760745</v>
+        <v>1.350870432407751</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7843805328024004</v>
+        <v>0.1722366142815758</v>
       </c>
       <c r="D18">
-        <v>0.9624391241048</v>
+        <v>3.607171610231858</v>
       </c>
       <c r="E18">
-        <v>1.034424834289638</v>
+        <v>1.863684788338591</v>
       </c>
       <c r="F18">
-        <v>0.7843805328024004</v>
+        <v>0.1722366142815758</v>
       </c>
       <c r="G18">
-        <v>0.9705355983886254</v>
+        <v>1.727401532491703</v>
       </c>
       <c r="H18">
-        <v>0.9624391241048</v>
+        <v>3.607171610231858</v>
       </c>
       <c r="I18">
-        <v>0.7964201529954353</v>
+        <v>0.9086818222999117</v>
       </c>
       <c r="J18">
-        <v>3.266633469974612</v>
+        <v>0.8989949914896787</v>
       </c>
       <c r="K18">
-        <v>0.9624391241048</v>
+        <v>3.607171610231858</v>
       </c>
       <c r="L18">
-        <v>1.034424834289638</v>
+        <v>1.863684788338591</v>
       </c>
       <c r="M18">
-        <v>0.9094026835460194</v>
+        <v>1.017960701310084</v>
       </c>
       <c r="N18">
-        <v>0.9094026835460194</v>
+        <v>1.017960701310084</v>
       </c>
       <c r="O18">
-        <v>0.871741840029158</v>
+        <v>0.9815344083066929</v>
       </c>
       <c r="P18">
-        <v>0.9270814970656129</v>
+        <v>1.881031004284008</v>
       </c>
       <c r="Q18">
-        <v>0.9270814970656129</v>
+        <v>1.881031004284008</v>
       </c>
       <c r="R18">
-        <v>0.9359209038254097</v>
+        <v>2.312566155770971</v>
       </c>
       <c r="S18">
-        <v>0.9359209038254097</v>
+        <v>2.312566155770971</v>
       </c>
       <c r="T18">
-        <v>1.302472285425919</v>
+        <v>1.52969522652222</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.210455398316767</v>
+        <v>0.9981058419267229</v>
       </c>
       <c r="D19">
-        <v>0.8391687435758558</v>
+        <v>1.003341398730923</v>
       </c>
       <c r="E19">
-        <v>0.9295984704943938</v>
+        <v>0.9989694248600068</v>
       </c>
       <c r="F19">
-        <v>1.210455398316767</v>
+        <v>0.9981058419267229</v>
       </c>
       <c r="G19">
-        <v>0.9684132719117692</v>
+        <v>0.9985622397254275</v>
       </c>
       <c r="H19">
-        <v>0.8391687435758558</v>
+        <v>1.003341398730923</v>
       </c>
       <c r="I19">
-        <v>0.711899883523362</v>
+        <v>0.9979160185133736</v>
       </c>
       <c r="J19">
-        <v>4.166533476041006</v>
+        <v>1.03937041700876</v>
       </c>
       <c r="K19">
-        <v>0.8391687435758558</v>
+        <v>1.003341398730923</v>
       </c>
       <c r="L19">
-        <v>0.9295984704943938</v>
+        <v>0.9989694248600068</v>
       </c>
       <c r="M19">
-        <v>1.070026934405581</v>
+        <v>0.9985376333933649</v>
       </c>
       <c r="N19">
-        <v>1.070026934405581</v>
+        <v>0.9985376333933649</v>
       </c>
       <c r="O19">
-        <v>0.9506512507781744</v>
+        <v>0.9983304284333677</v>
       </c>
       <c r="P19">
-        <v>0.9930742041290057</v>
+        <v>1.000138888505884</v>
       </c>
       <c r="Q19">
-        <v>0.9930742041290056</v>
+        <v>1.000138888505884</v>
       </c>
       <c r="R19">
-        <v>0.9545978389907182</v>
+        <v>1.000939516062144</v>
       </c>
       <c r="S19">
-        <v>0.9545978389907182</v>
+        <v>1.000939516062144</v>
       </c>
       <c r="T19">
-        <v>1.471011540643859</v>
+        <v>1.006044223460869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000751668414286</v>
+        <v>0.9945644200922633</v>
       </c>
       <c r="D20">
-        <v>0.9701711638566595</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="E20">
-        <v>1.020319112992274</v>
+        <v>0.9986588358774713</v>
       </c>
       <c r="F20">
-        <v>1.000751668414286</v>
+        <v>0.9945644200922633</v>
       </c>
       <c r="G20">
-        <v>0.9998080780611803</v>
+        <v>0.9972445723898169</v>
       </c>
       <c r="H20">
-        <v>0.9701711638566595</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="I20">
-        <v>0.9998092641672215</v>
+        <v>0.9994027152798937</v>
       </c>
       <c r="J20">
-        <v>1.027961724883407</v>
+        <v>1.086351679428624</v>
       </c>
       <c r="K20">
-        <v>0.9701711638566595</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="L20">
-        <v>1.020319112992274</v>
+        <v>0.9986588358774713</v>
       </c>
       <c r="M20">
-        <v>1.01053539070328</v>
+        <v>0.9966116279848674</v>
       </c>
       <c r="N20">
-        <v>1.01053539070328</v>
+        <v>0.9966116279848674</v>
       </c>
       <c r="O20">
-        <v>1.00696001519126</v>
+        <v>0.9975419904165429</v>
       </c>
       <c r="P20">
-        <v>0.9970806484210731</v>
+        <v>1.002682475457282</v>
       </c>
       <c r="Q20">
-        <v>0.9970806484210731</v>
+        <v>1.002682475457282</v>
       </c>
       <c r="R20">
-        <v>0.9903532772799697</v>
+        <v>1.005717899193489</v>
       </c>
       <c r="S20">
-        <v>0.9903532772799697</v>
+        <v>1.005717899193489</v>
       </c>
       <c r="T20">
-        <v>1.003136835395838</v>
+        <v>1.015174398911697</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.999327221981962</v>
+        <v>0.9939673118058183</v>
       </c>
       <c r="D21">
-        <v>1.075172385649689</v>
+        <v>1.077689568082015</v>
       </c>
       <c r="E21">
-        <v>0.934331532238425</v>
+        <v>1.015558768595609</v>
       </c>
       <c r="F21">
-        <v>0.999327221981962</v>
+        <v>0.9939673118058183</v>
       </c>
       <c r="G21">
-        <v>1.005494507369599</v>
+        <v>0.9928682231143192</v>
       </c>
       <c r="H21">
-        <v>1.075172385649689</v>
+        <v>1.077689568082015</v>
       </c>
       <c r="I21">
-        <v>0.9931762218868876</v>
+        <v>0.9962393497784621</v>
       </c>
       <c r="J21">
-        <v>1.023305419677767</v>
+        <v>1.087967701090985</v>
       </c>
       <c r="K21">
-        <v>1.075172385649689</v>
+        <v>1.077689568082015</v>
       </c>
       <c r="L21">
-        <v>0.934331532238425</v>
+        <v>1.015558768595609</v>
       </c>
       <c r="M21">
-        <v>0.9668293771101935</v>
+        <v>1.004763040200713</v>
       </c>
       <c r="N21">
-        <v>0.9668293771101935</v>
+        <v>1.004763040200713</v>
       </c>
       <c r="O21">
-        <v>0.9756116587024248</v>
+        <v>1.001921810059963</v>
       </c>
       <c r="P21">
-        <v>1.002943713290025</v>
+        <v>1.029071882827814</v>
       </c>
       <c r="Q21">
-        <v>1.002943713290025</v>
+        <v>1.029071882827814</v>
       </c>
       <c r="R21">
-        <v>1.021000881379941</v>
+        <v>1.041226304141365</v>
       </c>
       <c r="S21">
-        <v>1.021000881379941</v>
+        <v>1.041226304141365</v>
       </c>
       <c r="T21">
-        <v>1.005134548134055</v>
+        <v>1.027381820411202</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.057852301414167</v>
+        <v>1.000535099951031</v>
       </c>
       <c r="D22">
-        <v>1.345645936899726</v>
+        <v>1.085169674192831</v>
       </c>
       <c r="E22">
-        <v>1.039696111087978</v>
+        <v>1.001090131440143</v>
       </c>
       <c r="F22">
-        <v>1.057852301414167</v>
+        <v>1.000535099951031</v>
       </c>
       <c r="G22">
-        <v>1.099519235247022</v>
+        <v>0.9990031101531226</v>
       </c>
       <c r="H22">
-        <v>1.345645936899726</v>
+        <v>1.085169674192831</v>
       </c>
       <c r="I22">
-        <v>0.9837265172870313</v>
+        <v>0.9909935926641444</v>
       </c>
       <c r="J22">
-        <v>1.019787663957192</v>
+        <v>1.250740553782315</v>
       </c>
       <c r="K22">
-        <v>1.345645936899726</v>
+        <v>1.085169674192831</v>
       </c>
       <c r="L22">
-        <v>1.039696111087978</v>
+        <v>1.001090131440143</v>
       </c>
       <c r="M22">
-        <v>1.048774206251072</v>
+        <v>1.000812615695587</v>
       </c>
       <c r="N22">
-        <v>1.048774206251072</v>
+        <v>1.000812615695587</v>
       </c>
       <c r="O22">
-        <v>1.027091643263059</v>
+        <v>0.9975396080184397</v>
       </c>
       <c r="P22">
-        <v>1.147731449800624</v>
+        <v>1.028931635194669</v>
       </c>
       <c r="Q22">
-        <v>1.147731449800624</v>
+        <v>1.028931635194668</v>
       </c>
       <c r="R22">
-        <v>1.197210071575399</v>
+        <v>1.042991144944209</v>
       </c>
       <c r="S22">
-        <v>1.197210071575399</v>
+        <v>1.042991144944209</v>
       </c>
       <c r="T22">
-        <v>1.091037960982186</v>
+        <v>1.054588693697265</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9085858999506858</v>
+      </c>
+      <c r="D23">
+        <v>1.284877007566491</v>
+      </c>
+      <c r="E23">
+        <v>1.052837139769907</v>
+      </c>
+      <c r="F23">
+        <v>0.9085858999506858</v>
+      </c>
+      <c r="G23">
+        <v>0.9922498319747884</v>
+      </c>
+      <c r="H23">
+        <v>1.284877007566491</v>
+      </c>
+      <c r="I23">
+        <v>0.9184263034405413</v>
+      </c>
+      <c r="J23">
+        <v>1.323597746066788</v>
+      </c>
+      <c r="K23">
+        <v>1.284877007566491</v>
+      </c>
+      <c r="L23">
+        <v>1.052837139769907</v>
+      </c>
+      <c r="M23">
+        <v>0.9807115198602963</v>
+      </c>
+      <c r="N23">
+        <v>0.9807115198602963</v>
+      </c>
+      <c r="O23">
+        <v>0.9599497810537113</v>
+      </c>
+      <c r="P23">
+        <v>1.082100015762361</v>
+      </c>
+      <c r="Q23">
+        <v>1.082100015762361</v>
+      </c>
+      <c r="R23">
+        <v>1.132794263713393</v>
+      </c>
+      <c r="S23">
+        <v>1.132794263713393</v>
+      </c>
+      <c r="T23">
+        <v>1.080095654794867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.2732069801418922</v>
+      </c>
+      <c r="D24">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="E24">
+        <v>0.5352548914693838</v>
+      </c>
+      <c r="F24">
+        <v>0.2732069801418922</v>
+      </c>
+      <c r="G24">
+        <v>1.076081266117525</v>
+      </c>
+      <c r="H24">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="I24">
+        <v>1.280399484863902</v>
+      </c>
+      <c r="J24">
+        <v>0.001005863119924909</v>
+      </c>
+      <c r="K24">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="L24">
+        <v>0.5352548914693838</v>
+      </c>
+      <c r="M24">
+        <v>0.404230935805638</v>
+      </c>
+      <c r="N24">
+        <v>0.404230935805638</v>
+      </c>
+      <c r="O24">
+        <v>0.6962871188250591</v>
+      </c>
+      <c r="P24">
+        <v>0.8824943250318068</v>
+      </c>
+      <c r="Q24">
+        <v>0.8824943250318068</v>
+      </c>
+      <c r="R24">
+        <v>1.121626019644891</v>
+      </c>
+      <c r="S24">
+        <v>1.121626019644891</v>
+      </c>
+      <c r="T24">
+        <v>0.834161598199462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.59856177344524</v>
+      </c>
+      <c r="D25">
+        <v>0.9996289756698536</v>
+      </c>
+      <c r="E25">
+        <v>1.255764067592258</v>
+      </c>
+      <c r="F25">
+        <v>1.59856177344524</v>
+      </c>
+      <c r="G25">
+        <v>1.063621865688289</v>
+      </c>
+      <c r="H25">
+        <v>0.9996289756698536</v>
+      </c>
+      <c r="I25">
+        <v>0.6971390918901105</v>
+      </c>
+      <c r="J25">
+        <v>0.4158280523834147</v>
+      </c>
+      <c r="K25">
+        <v>0.9996289756698536</v>
+      </c>
+      <c r="L25">
+        <v>1.255764067592258</v>
+      </c>
+      <c r="M25">
+        <v>1.427162920518749</v>
+      </c>
+      <c r="N25">
+        <v>1.427162920518749</v>
+      </c>
+      <c r="O25">
+        <v>1.183821644309203</v>
+      </c>
+      <c r="P25">
+        <v>1.284651605569117</v>
+      </c>
+      <c r="Q25">
+        <v>1.284651605569117</v>
+      </c>
+      <c r="R25">
+        <v>1.213395948094301</v>
+      </c>
+      <c r="S25">
+        <v>1.213395948094301</v>
+      </c>
+      <c r="T25">
+        <v>1.005090637778194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9199036601382922</v>
+      </c>
+      <c r="D26">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="E26">
+        <v>0.684111181433151</v>
+      </c>
+      <c r="F26">
+        <v>0.9199036601382922</v>
+      </c>
+      <c r="G26">
+        <v>0.7786843792056468</v>
+      </c>
+      <c r="H26">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="I26">
+        <v>1.655163882683691</v>
+      </c>
+      <c r="J26">
+        <v>0.0007744251273875196</v>
+      </c>
+      <c r="K26">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="L26">
+        <v>0.684111181433151</v>
+      </c>
+      <c r="M26">
+        <v>0.8020074207857215</v>
+      </c>
+      <c r="N26">
+        <v>0.8020074207857215</v>
+      </c>
+      <c r="O26">
+        <v>1.086392908085045</v>
+      </c>
+      <c r="P26">
+        <v>0.655618251193912</v>
+      </c>
+      <c r="Q26">
+        <v>0.655618251193912</v>
+      </c>
+      <c r="R26">
+        <v>0.5824236663980074</v>
+      </c>
+      <c r="S26">
+        <v>0.5824236663980074</v>
+      </c>
+      <c r="T26">
+        <v>0.7335795734330769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9184736020164749</v>
+      </c>
+      <c r="D27">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="E27">
+        <v>1.219059604485593</v>
+      </c>
+      <c r="F27">
+        <v>0.9184736020164749</v>
+      </c>
+      <c r="G27">
+        <v>0.6051932528975573</v>
+      </c>
+      <c r="H27">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="I27">
+        <v>1.105815289347597</v>
+      </c>
+      <c r="J27">
+        <v>0.4993551020773961</v>
+      </c>
+      <c r="K27">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="L27">
+        <v>1.219059604485593</v>
+      </c>
+      <c r="M27">
+        <v>1.068766603251034</v>
+      </c>
+      <c r="N27">
+        <v>1.068766603251034</v>
+      </c>
+      <c r="O27">
+        <v>1.081116165283222</v>
+      </c>
+      <c r="P27">
+        <v>0.8440050760221579</v>
+      </c>
+      <c r="Q27">
+        <v>0.8440050760221579</v>
+      </c>
+      <c r="R27">
+        <v>0.7316243124077199</v>
+      </c>
+      <c r="S27">
+        <v>0.7316243124077199</v>
+      </c>
+      <c r="T27">
+        <v>0.790396478731504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1936821584779598</v>
+      </c>
+      <c r="D28">
+        <v>4.271041169050475</v>
+      </c>
+      <c r="E28">
+        <v>2.276287459286661</v>
+      </c>
+      <c r="F28">
+        <v>0.1936821584779598</v>
+      </c>
+      <c r="G28">
+        <v>2.265036974001261</v>
+      </c>
+      <c r="H28">
+        <v>4.271041169050475</v>
+      </c>
+      <c r="I28">
+        <v>0.2014993833589774</v>
+      </c>
+      <c r="J28">
+        <v>0.8107490901543931</v>
+      </c>
+      <c r="K28">
+        <v>4.271041169050475</v>
+      </c>
+      <c r="L28">
+        <v>2.276287459286661</v>
+      </c>
+      <c r="M28">
+        <v>1.23498480888231</v>
+      </c>
+      <c r="N28">
+        <v>1.23498480888231</v>
+      </c>
+      <c r="O28">
+        <v>0.8904896670411994</v>
+      </c>
+      <c r="P28">
+        <v>2.247003595605032</v>
+      </c>
+      <c r="Q28">
+        <v>2.247003595605032</v>
+      </c>
+      <c r="R28">
+        <v>2.753012988966393</v>
+      </c>
+      <c r="S28">
+        <v>2.753012988966393</v>
+      </c>
+      <c r="T28">
+        <v>1.669716039054955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.3881963496660493</v>
+      </c>
+      <c r="D29">
+        <v>3.1529842542316</v>
+      </c>
+      <c r="E29">
+        <v>1.855802118164345</v>
+      </c>
+      <c r="F29">
+        <v>0.3881963496660493</v>
+      </c>
+      <c r="G29">
+        <v>1.831009973051619</v>
+      </c>
+      <c r="H29">
+        <v>3.1529842542316</v>
+      </c>
+      <c r="I29">
+        <v>0.4029003196929428</v>
+      </c>
+      <c r="J29">
+        <v>1.644744229757913</v>
+      </c>
+      <c r="K29">
+        <v>3.1529842542316</v>
+      </c>
+      <c r="L29">
+        <v>1.855802118164345</v>
+      </c>
+      <c r="M29">
+        <v>1.121999233915197</v>
+      </c>
+      <c r="N29">
+        <v>1.121999233915197</v>
+      </c>
+      <c r="O29">
+        <v>0.8822995958411123</v>
+      </c>
+      <c r="P29">
+        <v>1.798994240687332</v>
+      </c>
+      <c r="Q29">
+        <v>1.798994240687332</v>
+      </c>
+      <c r="R29">
+        <v>2.137491744073399</v>
+      </c>
+      <c r="S29">
+        <v>2.137491744073399</v>
+      </c>
+      <c r="T29">
+        <v>1.545939540760745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7843805328024004</v>
+      </c>
+      <c r="D30">
+        <v>0.9624391241048</v>
+      </c>
+      <c r="E30">
+        <v>1.034424834289638</v>
+      </c>
+      <c r="F30">
+        <v>0.7843805328024004</v>
+      </c>
+      <c r="G30">
+        <v>0.9705355983886254</v>
+      </c>
+      <c r="H30">
+        <v>0.9624391241048</v>
+      </c>
+      <c r="I30">
+        <v>0.7964201529954353</v>
+      </c>
+      <c r="J30">
+        <v>3.266633469974612</v>
+      </c>
+      <c r="K30">
+        <v>0.9624391241048</v>
+      </c>
+      <c r="L30">
+        <v>1.034424834289638</v>
+      </c>
+      <c r="M30">
+        <v>0.9094026835460194</v>
+      </c>
+      <c r="N30">
+        <v>0.9094026835460194</v>
+      </c>
+      <c r="O30">
+        <v>0.871741840029158</v>
+      </c>
+      <c r="P30">
+        <v>0.9270814970656129</v>
+      </c>
+      <c r="Q30">
+        <v>0.9270814970656129</v>
+      </c>
+      <c r="R30">
+        <v>0.9359209038254097</v>
+      </c>
+      <c r="S30">
+        <v>0.9359209038254097</v>
+      </c>
+      <c r="T30">
+        <v>1.302472285425919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.210455398316767</v>
+      </c>
+      <c r="D31">
+        <v>0.8391687435758558</v>
+      </c>
+      <c r="E31">
+        <v>0.9295984704943938</v>
+      </c>
+      <c r="F31">
+        <v>1.210455398316767</v>
+      </c>
+      <c r="G31">
+        <v>0.9684132719117692</v>
+      </c>
+      <c r="H31">
+        <v>0.8391687435758558</v>
+      </c>
+      <c r="I31">
+        <v>0.711899883523362</v>
+      </c>
+      <c r="J31">
+        <v>4.166533476041006</v>
+      </c>
+      <c r="K31">
+        <v>0.8391687435758558</v>
+      </c>
+      <c r="L31">
+        <v>0.9295984704943938</v>
+      </c>
+      <c r="M31">
+        <v>1.070026934405581</v>
+      </c>
+      <c r="N31">
+        <v>1.070026934405581</v>
+      </c>
+      <c r="O31">
+        <v>0.9506512507781744</v>
+      </c>
+      <c r="P31">
+        <v>0.9930742041290057</v>
+      </c>
+      <c r="Q31">
+        <v>0.9930742041290056</v>
+      </c>
+      <c r="R31">
+        <v>0.9545978389907182</v>
+      </c>
+      <c r="S31">
+        <v>0.9545978389907182</v>
+      </c>
+      <c r="T31">
+        <v>1.471011540643859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>-0.001217493326027397</v>
+      </c>
+      <c r="D32">
+        <v>5.735696288460272</v>
+      </c>
+      <c r="E32">
+        <v>2.658718304949041</v>
+      </c>
+      <c r="F32">
+        <v>-0.001217493326027397</v>
+      </c>
+      <c r="G32">
+        <v>2.661080776717809</v>
+      </c>
+      <c r="H32">
+        <v>5.735696288460272</v>
+      </c>
+      <c r="I32">
+        <v>-0.0003421439115068493</v>
+      </c>
+      <c r="J32">
+        <v>0.001198255075342465</v>
+      </c>
+      <c r="K32">
+        <v>5.735696288460272</v>
+      </c>
+      <c r="L32">
+        <v>2.658718304949041</v>
+      </c>
+      <c r="M32">
+        <v>1.328750405811507</v>
+      </c>
+      <c r="N32">
+        <v>1.328750405811507</v>
+      </c>
+      <c r="O32">
+        <v>0.8857195559038354</v>
+      </c>
+      <c r="P32">
+        <v>2.797732366694429</v>
+      </c>
+      <c r="Q32">
+        <v>2.797732366694429</v>
+      </c>
+      <c r="R32">
+        <v>3.53222334713589</v>
+      </c>
+      <c r="S32">
+        <v>3.53222334713589</v>
+      </c>
+      <c r="T32">
+        <v>1.842522331327489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3.406934216705264</v>
+      </c>
+      <c r="D33">
+        <v>1.704390346540527</v>
+      </c>
+      <c r="E33">
+        <v>2.105215039510158</v>
+      </c>
+      <c r="F33">
+        <v>3.406934216705264</v>
+      </c>
+      <c r="G33">
+        <v>0.1417101855105264</v>
+      </c>
+      <c r="H33">
+        <v>1.704390346540527</v>
+      </c>
+      <c r="I33">
+        <v>0.03203719489436842</v>
+      </c>
+      <c r="J33">
+        <v>6.308808136915784</v>
+      </c>
+      <c r="K33">
+        <v>1.704390346540527</v>
+      </c>
+      <c r="L33">
+        <v>2.105215039510158</v>
+      </c>
+      <c r="M33">
+        <v>2.756074628107711</v>
+      </c>
+      <c r="N33">
+        <v>2.756074628107711</v>
+      </c>
+      <c r="O33">
+        <v>1.84806215036993</v>
+      </c>
+      <c r="P33">
+        <v>2.405513200918649</v>
+      </c>
+      <c r="Q33">
+        <v>2.405513200918649</v>
+      </c>
+      <c r="R33">
+        <v>2.230232487324118</v>
+      </c>
+      <c r="S33">
+        <v>2.230232487324118</v>
+      </c>
+      <c r="T33">
+        <v>2.283182520012771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.001263754283210526</v>
+      </c>
+      <c r="D34">
+        <v>2.504721636721895</v>
+      </c>
+      <c r="E34">
+        <v>0.2668171258141579</v>
+      </c>
+      <c r="F34">
+        <v>0.001263754283210526</v>
+      </c>
+      <c r="G34">
+        <v>1.148858639121053</v>
+      </c>
+      <c r="H34">
+        <v>2.504721636721895</v>
+      </c>
+      <c r="I34">
+        <v>0.3742434583513684</v>
+      </c>
+      <c r="J34">
+        <v>3.752783996555207</v>
+      </c>
+      <c r="K34">
+        <v>2.504721636721895</v>
+      </c>
+      <c r="L34">
+        <v>0.2668171258141579</v>
+      </c>
+      <c r="M34">
+        <v>0.1340404400486842</v>
+      </c>
+      <c r="N34">
+        <v>0.1340404400486842</v>
+      </c>
+      <c r="O34">
+        <v>0.2141081128162456</v>
+      </c>
+      <c r="P34">
+        <v>0.9242675056064211</v>
+      </c>
+      <c r="Q34">
+        <v>0.924267505606421</v>
+      </c>
+      <c r="R34">
+        <v>1.31938103838529</v>
+      </c>
+      <c r="S34">
+        <v>1.31938103838529</v>
+      </c>
+      <c r="T34">
+        <v>1.341448101807815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.3957047700154648</v>
+      </c>
+      <c r="D35">
+        <v>0.4356260665718095</v>
+      </c>
+      <c r="E35">
+        <v>0.5109108941709031</v>
+      </c>
+      <c r="F35">
+        <v>0.3957047700154648</v>
+      </c>
+      <c r="G35">
+        <v>0.4773583534150067</v>
+      </c>
+      <c r="H35">
+        <v>0.4356260665718095</v>
+      </c>
+      <c r="I35">
+        <v>0.4045657750550431</v>
+      </c>
+      <c r="J35">
+        <v>24.38394307644118</v>
+      </c>
+      <c r="K35">
+        <v>0.4356260665718095</v>
+      </c>
+      <c r="L35">
+        <v>0.5109108941709031</v>
+      </c>
+      <c r="M35">
+        <v>0.4533078320931839</v>
+      </c>
+      <c r="N35">
+        <v>0.4533078320931839</v>
+      </c>
+      <c r="O35">
+        <v>0.437060479747137</v>
+      </c>
+      <c r="P35">
+        <v>0.4474139102527258</v>
+      </c>
+      <c r="Q35">
+        <v>0.4474139102527258</v>
+      </c>
+      <c r="R35">
+        <v>0.4444669493324967</v>
+      </c>
+      <c r="S35">
+        <v>0.4444669493324967</v>
+      </c>
+      <c r="T35">
+        <v>4.434684822611567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000751668414286</v>
+      </c>
+      <c r="D36">
+        <v>0.9701711638566595</v>
+      </c>
+      <c r="E36">
+        <v>1.020319112992274</v>
+      </c>
+      <c r="F36">
+        <v>1.000751668414286</v>
+      </c>
+      <c r="G36">
+        <v>0.9998080780611803</v>
+      </c>
+      <c r="H36">
+        <v>0.9701711638566595</v>
+      </c>
+      <c r="I36">
+        <v>0.9998092641672215</v>
+      </c>
+      <c r="J36">
+        <v>1.027961724883407</v>
+      </c>
+      <c r="K36">
+        <v>0.9701711638566595</v>
+      </c>
+      <c r="L36">
+        <v>1.020319112992274</v>
+      </c>
+      <c r="M36">
+        <v>1.01053539070328</v>
+      </c>
+      <c r="N36">
+        <v>1.01053539070328</v>
+      </c>
+      <c r="O36">
+        <v>1.00696001519126</v>
+      </c>
+      <c r="P36">
+        <v>0.9970806484210731</v>
+      </c>
+      <c r="Q36">
+        <v>0.9970806484210731</v>
+      </c>
+      <c r="R36">
+        <v>0.9903532772799697</v>
+      </c>
+      <c r="S36">
+        <v>0.9903532772799697</v>
+      </c>
+      <c r="T36">
+        <v>1.003136835395838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.999327221981962</v>
+      </c>
+      <c r="D37">
+        <v>1.075172385649689</v>
+      </c>
+      <c r="E37">
+        <v>0.934331532238425</v>
+      </c>
+      <c r="F37">
+        <v>0.999327221981962</v>
+      </c>
+      <c r="G37">
+        <v>1.005494507369599</v>
+      </c>
+      <c r="H37">
+        <v>1.075172385649689</v>
+      </c>
+      <c r="I37">
+        <v>0.9931762218868876</v>
+      </c>
+      <c r="J37">
+        <v>1.023305419677767</v>
+      </c>
+      <c r="K37">
+        <v>1.075172385649689</v>
+      </c>
+      <c r="L37">
+        <v>0.934331532238425</v>
+      </c>
+      <c r="M37">
+        <v>0.9668293771101935</v>
+      </c>
+      <c r="N37">
+        <v>0.9668293771101935</v>
+      </c>
+      <c r="O37">
+        <v>0.9756116587024248</v>
+      </c>
+      <c r="P37">
+        <v>1.002943713290025</v>
+      </c>
+      <c r="Q37">
+        <v>1.002943713290025</v>
+      </c>
+      <c r="R37">
+        <v>1.021000881379941</v>
+      </c>
+      <c r="S37">
+        <v>1.021000881379941</v>
+      </c>
+      <c r="T37">
+        <v>1.005134548134055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.057852301414167</v>
+      </c>
+      <c r="D38">
+        <v>1.345645936899726</v>
+      </c>
+      <c r="E38">
+        <v>1.039696111087978</v>
+      </c>
+      <c r="F38">
+        <v>1.057852301414167</v>
+      </c>
+      <c r="G38">
+        <v>1.099519235247022</v>
+      </c>
+      <c r="H38">
+        <v>1.345645936899726</v>
+      </c>
+      <c r="I38">
+        <v>0.9837265172870313</v>
+      </c>
+      <c r="J38">
+        <v>1.019787663957192</v>
+      </c>
+      <c r="K38">
+        <v>1.345645936899726</v>
+      </c>
+      <c r="L38">
+        <v>1.039696111087978</v>
+      </c>
+      <c r="M38">
+        <v>1.048774206251072</v>
+      </c>
+      <c r="N38">
+        <v>1.048774206251072</v>
+      </c>
+      <c r="O38">
+        <v>1.027091643263059</v>
+      </c>
+      <c r="P38">
+        <v>1.147731449800624</v>
+      </c>
+      <c r="Q38">
+        <v>1.147731449800624</v>
+      </c>
+      <c r="R38">
+        <v>1.197210071575399</v>
+      </c>
+      <c r="S38">
+        <v>1.197210071575399</v>
+      </c>
+      <c r="T38">
+        <v>1.091037960982186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.553843801497538</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.74812012985624</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.124399133932055</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.553843801497538</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.302897079418992</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.74812012985624</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9067589015485351</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.371508485542208</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.74812012985624</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.124399133932055</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.339121467714796</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.339121467714796</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.195000612326043</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.142121021761944</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.142121021761944</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.043620798785518</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.043620798785518</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.167921255299261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8940823806291546</v>
+      </c>
+      <c r="D40">
+        <v>0.9079952684218774</v>
+      </c>
+      <c r="E40">
+        <v>1.386951856494411</v>
+      </c>
+      <c r="F40">
+        <v>0.8940823806291546</v>
+      </c>
+      <c r="G40">
+        <v>1.056034871121642</v>
+      </c>
+      <c r="H40">
+        <v>0.9079952684218774</v>
+      </c>
+      <c r="I40">
+        <v>0.8551304350901764</v>
+      </c>
+      <c r="J40">
+        <v>1.123349190840732</v>
+      </c>
+      <c r="K40">
+        <v>0.9079952684218774</v>
+      </c>
+      <c r="L40">
+        <v>1.386951856494411</v>
+      </c>
+      <c r="M40">
+        <v>1.140517118561783</v>
+      </c>
+      <c r="N40">
+        <v>1.140517118561783</v>
+      </c>
+      <c r="O40">
+        <v>1.045388224071247</v>
+      </c>
+      <c r="P40">
+        <v>1.063009835181814</v>
+      </c>
+      <c r="Q40">
+        <v>1.063009835181814</v>
+      </c>
+      <c r="R40">
+        <v>1.02425619349183</v>
+      </c>
+      <c r="S40">
+        <v>1.02425619349183</v>
+      </c>
+      <c r="T40">
+        <v>1.037257333766332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9668394411085337</v>
+      </c>
+      <c r="D41">
+        <v>1.091439021875293</v>
+      </c>
+      <c r="E41">
+        <v>0.9396619860417238</v>
+      </c>
+      <c r="F41">
+        <v>0.9668394411085337</v>
+      </c>
+      <c r="G41">
+        <v>0.9838404446400915</v>
+      </c>
+      <c r="H41">
+        <v>1.091439021875293</v>
+      </c>
+      <c r="I41">
+        <v>1.056622182358945</v>
+      </c>
+      <c r="J41">
+        <v>0.7576328810858854</v>
+      </c>
+      <c r="K41">
+        <v>1.091439021875293</v>
+      </c>
+      <c r="L41">
+        <v>0.9396619860417238</v>
+      </c>
+      <c r="M41">
+        <v>0.9532507135751287</v>
+      </c>
+      <c r="N41">
+        <v>0.9532507135751287</v>
+      </c>
+      <c r="O41">
+        <v>0.9877078698364009</v>
+      </c>
+      <c r="P41">
+        <v>0.999313483008517</v>
+      </c>
+      <c r="Q41">
+        <v>0.999313483008517</v>
+      </c>
+      <c r="R41">
+        <v>1.022344867725211</v>
+      </c>
+      <c r="S41">
+        <v>1.022344867725211</v>
+      </c>
+      <c r="T41">
+        <v>0.9660059928517456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.1647742910967129</v>
+      </c>
+      <c r="D42">
+        <v>1.49039886657505</v>
+      </c>
+      <c r="E42">
+        <v>1.28942015320018</v>
+      </c>
+      <c r="F42">
+        <v>0.1647742910967129</v>
+      </c>
+      <c r="G42">
+        <v>1.337948360167931</v>
+      </c>
+      <c r="H42">
+        <v>1.49039886657505</v>
+      </c>
+      <c r="I42">
+        <v>0.5892536448024673</v>
+      </c>
+      <c r="J42">
+        <v>0.9639202904394443</v>
+      </c>
+      <c r="K42">
+        <v>1.49039886657505</v>
+      </c>
+      <c r="L42">
+        <v>1.28942015320018</v>
+      </c>
+      <c r="M42">
+        <v>0.7270972221484466</v>
+      </c>
+      <c r="N42">
+        <v>0.7270972221484466</v>
+      </c>
+      <c r="O42">
+        <v>0.6811493630331201</v>
+      </c>
+      <c r="P42">
+        <v>0.9815311036239812</v>
+      </c>
+      <c r="Q42">
+        <v>0.9815311036239812</v>
+      </c>
+      <c r="R42">
+        <v>1.108748044361749</v>
+      </c>
+      <c r="S42">
+        <v>1.108748044361749</v>
+      </c>
+      <c r="T42">
+        <v>0.9726192677136311</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.192705046652281</v>
+        <v>0.9945644200922633</v>
       </c>
       <c r="D3">
-        <v>0.9460490022270609</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="E3">
-        <v>1.088343051181828</v>
+        <v>0.9986588358774713</v>
       </c>
       <c r="F3">
-        <v>1.192705046652281</v>
+        <v>0.9945644200922633</v>
       </c>
       <c r="G3">
-        <v>0.9761996716014508</v>
+        <v>0.9972445723898169</v>
       </c>
       <c r="H3">
-        <v>0.956520465309969</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="I3">
-        <v>1.062786423740895</v>
+        <v>0.9994027152798937</v>
       </c>
       <c r="J3">
-        <v>0.9460490022270609</v>
+        <v>1.086351679428624</v>
       </c>
       <c r="K3">
-        <v>1.192705046652281</v>
+        <v>1.014824170402111</v>
       </c>
       <c r="L3">
-        <v>1.088343051181828</v>
+        <v>0.9986588358774713</v>
       </c>
       <c r="M3">
-        <v>1.017196026704444</v>
+        <v>0.9966116279848674</v>
       </c>
       <c r="N3">
-        <v>1.017196026704444</v>
+        <v>0.9966116279848674</v>
       </c>
       <c r="O3">
-        <v>0.9969708395729525</v>
+        <v>0.9975419904165429</v>
       </c>
       <c r="P3">
-        <v>1.075699033353723</v>
+        <v>1.002682475457282</v>
       </c>
       <c r="Q3">
-        <v>1.075699033353723</v>
+        <v>1.002682475457282</v>
       </c>
       <c r="R3">
-        <v>1.104950536678363</v>
+        <v>1.005717899193489</v>
       </c>
       <c r="S3">
-        <v>1.104950536678363</v>
+        <v>1.005717899193489</v>
       </c>
       <c r="T3">
-        <v>1.037100610118914</v>
+        <v>1.015174398911697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.425023186308709</v>
+        <v>0.8940823806291546</v>
       </c>
       <c r="D4">
-        <v>0.9680539446822281</v>
+        <v>0.9079952684218774</v>
       </c>
       <c r="E4">
-        <v>1.144824892581602</v>
+        <v>1.386951856494411</v>
       </c>
       <c r="F4">
-        <v>1.425023186308709</v>
+        <v>0.8940823806291546</v>
       </c>
       <c r="G4">
-        <v>1.006775023768559</v>
+        <v>1.056034871121642</v>
       </c>
       <c r="H4">
-        <v>0.8991923623970581</v>
+        <v>0.9079952684218774</v>
       </c>
       <c r="I4">
-        <v>1.16503995001841</v>
+        <v>0.8551304350901764</v>
       </c>
       <c r="J4">
-        <v>0.9680539446822281</v>
+        <v>1.123349190840732</v>
       </c>
       <c r="K4">
-        <v>1.425023186308709</v>
+        <v>0.9079952684218774</v>
       </c>
       <c r="L4">
-        <v>1.144824892581602</v>
+        <v>1.386951856494411</v>
       </c>
       <c r="M4">
-        <v>1.056439418631915</v>
+        <v>1.140517118561783</v>
       </c>
       <c r="N4">
-        <v>1.056439418631915</v>
+        <v>1.140517118561783</v>
       </c>
       <c r="O4">
-        <v>1.004023733220296</v>
+        <v>1.045388224071247</v>
       </c>
       <c r="P4">
-        <v>1.179300674524179</v>
+        <v>1.063009835181814</v>
       </c>
       <c r="Q4">
-        <v>1.17930067452418</v>
+        <v>1.063009835181814</v>
       </c>
       <c r="R4">
-        <v>1.240731302470312</v>
+        <v>1.02425619349183</v>
       </c>
       <c r="S4">
-        <v>1.240731302470312</v>
+        <v>1.02425619349183</v>
       </c>
       <c r="T4">
-        <v>1.101484893292761</v>
+        <v>1.037257333766332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.996086042624897</v>
+        <v>0.7312658233457493</v>
       </c>
       <c r="D5">
-        <v>1.292389985797389</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="E5">
-        <v>1.252866903940491</v>
+        <v>1.019363710135644</v>
       </c>
       <c r="F5">
-        <v>1.996086042624897</v>
+        <v>0.7312658233457493</v>
       </c>
       <c r="G5">
-        <v>1.19608874617459</v>
+        <v>0.9823545311356645</v>
       </c>
       <c r="H5">
-        <v>0.7977075550076881</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="I5">
-        <v>1.570083360901448</v>
+        <v>0.762981707676165</v>
       </c>
       <c r="J5">
-        <v>1.292389985797389</v>
+        <v>4.258274577398906</v>
       </c>
       <c r="K5">
-        <v>1.996086042624897</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="L5">
-        <v>1.252866903940491</v>
+        <v>1.019363710135644</v>
       </c>
       <c r="M5">
-        <v>1.27262844486894</v>
+        <v>0.8753147667406969</v>
       </c>
       <c r="N5">
-        <v>1.27262844486894</v>
+        <v>0.8753147667406969</v>
       </c>
       <c r="O5">
-        <v>1.114321481581856</v>
+        <v>0.8378704137191862</v>
       </c>
       <c r="P5">
-        <v>1.513780977454259</v>
+        <v>0.9139573126378379</v>
       </c>
       <c r="Q5">
-        <v>1.513780977454259</v>
+        <v>0.9139573126378377</v>
       </c>
       <c r="R5">
-        <v>1.634357243746919</v>
+        <v>0.9332785855864083</v>
       </c>
       <c r="S5">
-        <v>1.634357243746919</v>
+        <v>0.9332785855864083</v>
       </c>
       <c r="T5">
-        <v>1.350870432407751</v>
+        <v>1.457580459020708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.607171610231858</v>
+        <v>0.3957047700154648</v>
       </c>
       <c r="D6">
-        <v>0.1722366142815758</v>
+        <v>0.4356260665718095</v>
       </c>
       <c r="E6">
-        <v>1.863684788338591</v>
+        <v>0.5109108941709031</v>
       </c>
       <c r="F6">
-        <v>3.607171610231858</v>
+        <v>0.3957047700154648</v>
       </c>
       <c r="G6">
-        <v>0.8989949914896787</v>
+        <v>0.4773583534150067</v>
       </c>
       <c r="H6">
-        <v>0.9086818222999117</v>
+        <v>0.4356260665718095</v>
       </c>
       <c r="I6">
-        <v>1.727401532491703</v>
+        <v>0.4045657750550431</v>
       </c>
       <c r="J6">
-        <v>0.1722366142815758</v>
+        <v>24.38394307644118</v>
       </c>
       <c r="K6">
-        <v>3.607171610231858</v>
+        <v>0.4356260665718095</v>
       </c>
       <c r="L6">
-        <v>1.863684788338591</v>
+        <v>0.5109108941709031</v>
       </c>
       <c r="M6">
-        <v>1.017960701310084</v>
+        <v>0.4533078320931839</v>
       </c>
       <c r="N6">
-        <v>1.017960701310084</v>
+        <v>0.4533078320931839</v>
       </c>
       <c r="O6">
-        <v>0.9815344083066929</v>
+        <v>0.437060479747137</v>
       </c>
       <c r="P6">
-        <v>1.881031004284008</v>
+        <v>0.4474139102527258</v>
       </c>
       <c r="Q6">
-        <v>1.881031004284008</v>
+        <v>0.4474139102527258</v>
       </c>
       <c r="R6">
-        <v>2.312566155770971</v>
+        <v>0.4444669493324967</v>
       </c>
       <c r="S6">
-        <v>2.312566155770971</v>
+        <v>0.4444669493324967</v>
       </c>
       <c r="T6">
-        <v>1.52969522652222</v>
+        <v>4.434684822611567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003341398730923</v>
+        <v>0.9518581875329304</v>
       </c>
       <c r="D7">
-        <v>0.9981058419267229</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="E7">
-        <v>0.9989694248600067</v>
+        <v>1.068697153060727</v>
       </c>
       <c r="F7">
-        <v>1.003341398730923</v>
+        <v>0.9518581875329304</v>
       </c>
       <c r="G7">
-        <v>1.03937041700876</v>
+        <v>1.078950078165327</v>
       </c>
       <c r="H7">
-        <v>0.9979160185133752</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="I7">
-        <v>0.9985622397254287</v>
+        <v>0.9528833095128711</v>
       </c>
       <c r="J7">
-        <v>0.9981058419267229</v>
+        <v>0.9719218545937904</v>
       </c>
       <c r="K7">
-        <v>1.003341398730923</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="L7">
-        <v>0.9989694248600067</v>
+        <v>1.068697153060727</v>
       </c>
       <c r="M7">
-        <v>0.9985376333933649</v>
+        <v>1.010277670296829</v>
       </c>
       <c r="N7">
-        <v>0.9985376333933649</v>
+        <v>1.010277670296829</v>
       </c>
       <c r="O7">
-        <v>0.9983304284333684</v>
+        <v>0.9911462167021762</v>
       </c>
       <c r="P7">
-        <v>1.000138888505884</v>
+        <v>1.066474108784922</v>
       </c>
       <c r="Q7">
-        <v>1.000138888505884</v>
+        <v>1.066474108784922</v>
       </c>
       <c r="R7">
-        <v>1.000939516062144</v>
+        <v>1.094572328028969</v>
       </c>
       <c r="S7">
-        <v>1.000939516062144</v>
+        <v>1.094572328028969</v>
       </c>
       <c r="T7">
-        <v>1.006044223460869</v>
+        <v>1.033862928104459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014824170402112</v>
+        <v>0.999327221981962</v>
       </c>
       <c r="D8">
-        <v>0.9945644200922635</v>
+        <v>1.075172385649689</v>
       </c>
       <c r="E8">
-        <v>0.9986588358774716</v>
+        <v>0.934331532238425</v>
       </c>
       <c r="F8">
-        <v>1.014824170402112</v>
+        <v>0.999327221981962</v>
       </c>
       <c r="G8">
-        <v>1.086351679428616</v>
+        <v>1.005494507369599</v>
       </c>
       <c r="H8">
-        <v>0.9994027152798942</v>
+        <v>1.075172385649689</v>
       </c>
       <c r="I8">
-        <v>0.9972445723898182</v>
+        <v>0.9931762218868876</v>
       </c>
       <c r="J8">
-        <v>0.9945644200922635</v>
+        <v>1.023305419677767</v>
       </c>
       <c r="K8">
-        <v>1.014824170402112</v>
+        <v>1.075172385649689</v>
       </c>
       <c r="L8">
-        <v>0.9986588358774716</v>
+        <v>0.934331532238425</v>
       </c>
       <c r="M8">
-        <v>0.9966116279848676</v>
+        <v>0.9668293771101935</v>
       </c>
       <c r="N8">
-        <v>0.9966116279848676</v>
+        <v>0.9668293771101935</v>
       </c>
       <c r="O8">
-        <v>0.9975419904165431</v>
+        <v>0.9756116587024248</v>
       </c>
       <c r="P8">
-        <v>1.002682475457282</v>
+        <v>1.002943713290025</v>
       </c>
       <c r="Q8">
-        <v>1.002682475457282</v>
+        <v>1.002943713290025</v>
       </c>
       <c r="R8">
-        <v>1.00571789919349</v>
+        <v>1.021000881379941</v>
       </c>
       <c r="S8">
-        <v>1.00571789919349</v>
+        <v>1.021000881379941</v>
       </c>
       <c r="T8">
-        <v>1.015174398911696</v>
+        <v>1.005134548134055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.077689568082015</v>
+        <v>0.9680539446822281</v>
       </c>
       <c r="D9">
-        <v>0.9939673118058183</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="E9">
-        <v>1.015558768595609</v>
+        <v>1.144824892581602</v>
       </c>
       <c r="F9">
-        <v>1.077689568082015</v>
+        <v>0.9680539446822281</v>
       </c>
       <c r="G9">
-        <v>1.087967701090985</v>
+        <v>1.16503995001841</v>
       </c>
       <c r="H9">
-        <v>0.9962393497784621</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="I9">
-        <v>0.9928682231143192</v>
+        <v>0.8991923623970581</v>
       </c>
       <c r="J9">
-        <v>0.9939673118058183</v>
+        <v>1.006775023768559</v>
       </c>
       <c r="K9">
-        <v>1.077689568082015</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="L9">
-        <v>1.015558768595609</v>
+        <v>1.144824892581602</v>
       </c>
       <c r="M9">
-        <v>1.004763040200713</v>
+        <v>1.056439418631915</v>
       </c>
       <c r="N9">
-        <v>1.004763040200713</v>
+        <v>1.056439418631915</v>
       </c>
       <c r="O9">
-        <v>1.001921810059963</v>
+        <v>1.004023733220296</v>
       </c>
       <c r="P9">
-        <v>1.029071882827814</v>
+        <v>1.179300674524179</v>
       </c>
       <c r="Q9">
-        <v>1.029071882827814</v>
+        <v>1.17930067452418</v>
       </c>
       <c r="R9">
-        <v>1.041226304141365</v>
+        <v>1.240731302470312</v>
       </c>
       <c r="S9">
-        <v>1.041226304141365</v>
+        <v>1.240731302470312</v>
       </c>
       <c r="T9">
-        <v>1.027381820411202</v>
+        <v>1.101484893292761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.085169674192831</v>
+        <v>0.5147203555159724</v>
       </c>
       <c r="D10">
-        <v>1.000535099951031</v>
+        <v>0.4154076793830138</v>
       </c>
       <c r="E10">
-        <v>1.001090131440143</v>
+        <v>0.4688233049472011</v>
       </c>
       <c r="F10">
-        <v>1.085169674192831</v>
+        <v>0.5147203555159724</v>
       </c>
       <c r="G10">
-        <v>1.250740553782315</v>
+        <v>0.4666478444588962</v>
       </c>
       <c r="H10">
-        <v>0.9909935926641444</v>
+        <v>0.4154076793830138</v>
       </c>
       <c r="I10">
-        <v>0.9990031101531227</v>
+        <v>0.3593442808984897</v>
       </c>
       <c r="J10">
-        <v>1.000535099951031</v>
+        <v>24.80946027493194</v>
       </c>
       <c r="K10">
-        <v>1.085169674192831</v>
+        <v>0.4154076793830138</v>
       </c>
       <c r="L10">
-        <v>1.001090131440143</v>
+        <v>0.4688233049472011</v>
       </c>
       <c r="M10">
-        <v>1.000812615695587</v>
+        <v>0.4917718302315868</v>
       </c>
       <c r="N10">
-        <v>1.000812615695587</v>
+        <v>0.4917718302315868</v>
       </c>
       <c r="O10">
-        <v>0.9975396080184397</v>
+        <v>0.4476293137872211</v>
       </c>
       <c r="P10">
-        <v>1.028931635194669</v>
+        <v>0.4663171132820625</v>
       </c>
       <c r="Q10">
-        <v>1.028931635194668</v>
+        <v>0.4663171132820625</v>
       </c>
       <c r="R10">
-        <v>1.042991144944209</v>
+        <v>0.4535897548073003</v>
       </c>
       <c r="S10">
-        <v>1.042991144944209</v>
+        <v>0.4535897548073003</v>
       </c>
       <c r="T10">
-        <v>1.054588693697265</v>
+        <v>4.505733956689252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.284877007566491</v>
+        <v>0.6776342820616565</v>
       </c>
       <c r="D11">
-        <v>0.9085858999506856</v>
+        <v>1.023141648035315</v>
       </c>
       <c r="E11">
-        <v>1.052837139769906</v>
+        <v>1.378869844067988</v>
       </c>
       <c r="F11">
-        <v>1.284877007566491</v>
+        <v>0.6776342820616565</v>
       </c>
       <c r="G11">
-        <v>1.323597746066788</v>
+        <v>1.158214906435336</v>
       </c>
       <c r="H11">
-        <v>0.9184263034405413</v>
+        <v>1.023141648035315</v>
       </c>
       <c r="I11">
-        <v>0.9922498319747884</v>
+        <v>0.8836015009060419</v>
       </c>
       <c r="J11">
-        <v>0.9085858999506856</v>
+        <v>0.6105451049409774</v>
       </c>
       <c r="K11">
-        <v>1.284877007566491</v>
+        <v>1.023141648035315</v>
       </c>
       <c r="L11">
-        <v>1.052837139769906</v>
+        <v>1.378869844067988</v>
       </c>
       <c r="M11">
-        <v>0.9807115198602958</v>
+        <v>1.028252063064822</v>
       </c>
       <c r="N11">
-        <v>0.9807115198602958</v>
+        <v>1.028252063064822</v>
       </c>
       <c r="O11">
-        <v>0.959949781053711</v>
+        <v>0.9800352090118953</v>
       </c>
       <c r="P11">
-        <v>1.082100015762361</v>
+        <v>1.02654859138832</v>
       </c>
       <c r="Q11">
-        <v>1.082100015762361</v>
+        <v>1.02654859138832</v>
       </c>
       <c r="R11">
-        <v>1.132794263713393</v>
+        <v>1.025696855550069</v>
       </c>
       <c r="S11">
-        <v>1.132794263713393</v>
+        <v>1.025696855550069</v>
       </c>
       <c r="T11">
-        <v>1.080095654794867</v>
+        <v>0.9553345477412192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.839021103484144</v>
+        <v>1.042244323984107</v>
       </c>
       <c r="D12">
-        <v>0.2732069801418919</v>
+        <v>0.7583734891534419</v>
       </c>
       <c r="E12">
-        <v>0.5352548914693844</v>
+        <v>0.9562426601600553</v>
       </c>
       <c r="F12">
-        <v>1.839021103484144</v>
+        <v>1.042244323984107</v>
       </c>
       <c r="G12">
-        <v>0.001005863119924907</v>
+        <v>0.8817322131129502</v>
       </c>
       <c r="H12">
-        <v>1.280399484863902</v>
+        <v>0.7583734891534419</v>
       </c>
       <c r="I12">
-        <v>1.076081266117525</v>
+        <v>0.6775880526271422</v>
       </c>
       <c r="J12">
-        <v>0.2732069801418919</v>
+        <v>5.544631364771349</v>
       </c>
       <c r="K12">
-        <v>1.839021103484144</v>
+        <v>0.7583734891534419</v>
       </c>
       <c r="L12">
-        <v>0.5352548914693844</v>
+        <v>0.9562426601600553</v>
       </c>
       <c r="M12">
-        <v>0.4042309358056382</v>
+        <v>0.999243492072081</v>
       </c>
       <c r="N12">
-        <v>0.4042309358056382</v>
+        <v>0.999243492072081</v>
       </c>
       <c r="O12">
-        <v>0.6962871188250593</v>
+        <v>0.8920250122571014</v>
       </c>
       <c r="P12">
-        <v>0.8824943250318067</v>
+        <v>0.9189534910992013</v>
       </c>
       <c r="Q12">
-        <v>0.8824943250318068</v>
+        <v>0.9189534910992013</v>
       </c>
       <c r="R12">
-        <v>1.121626019644891</v>
+        <v>0.8788084906127615</v>
       </c>
       <c r="S12">
-        <v>1.121626019644891</v>
+        <v>0.8788084906127615</v>
       </c>
       <c r="T12">
-        <v>0.834161598199462</v>
+        <v>1.643468683968174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996289756698536</v>
+        <v>1.845963686012755</v>
       </c>
       <c r="D13">
-        <v>1.598561773445241</v>
+        <v>1.019983159474414</v>
       </c>
       <c r="E13">
-        <v>1.255764067592257</v>
+        <v>0.7828157738526575</v>
       </c>
       <c r="F13">
-        <v>0.9996289756698536</v>
+        <v>1.845963686012755</v>
       </c>
       <c r="G13">
-        <v>0.4158280523834149</v>
+        <v>0.9788752446048739</v>
       </c>
       <c r="H13">
-        <v>0.6971390918901106</v>
+        <v>1.019983159474414</v>
       </c>
       <c r="I13">
-        <v>1.06362186568829</v>
+        <v>1.012889068946638</v>
       </c>
       <c r="J13">
-        <v>1.598561773445241</v>
+        <v>0.5768503629232895</v>
       </c>
       <c r="K13">
-        <v>0.9996289756698536</v>
+        <v>1.019983159474414</v>
       </c>
       <c r="L13">
-        <v>1.255764067592257</v>
+        <v>0.7828157738526575</v>
       </c>
       <c r="M13">
-        <v>1.427162920518749</v>
+        <v>1.314389729932706</v>
       </c>
       <c r="N13">
-        <v>1.427162920518749</v>
+        <v>1.314389729932706</v>
       </c>
       <c r="O13">
-        <v>1.183821644309203</v>
+        <v>1.213889509604017</v>
       </c>
       <c r="P13">
-        <v>1.284651605569118</v>
+        <v>1.216254206446609</v>
       </c>
       <c r="Q13">
-        <v>1.284651605569118</v>
+        <v>1.216254206446609</v>
       </c>
       <c r="R13">
-        <v>1.213395948094302</v>
+        <v>1.16718644470356</v>
       </c>
       <c r="S13">
-        <v>1.213395948094302</v>
+        <v>1.16718644470356</v>
       </c>
       <c r="T13">
-        <v>1.005090637778195</v>
+        <v>1.036229549302438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3628399120102928</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="D14">
-        <v>0.9199036601382931</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="E14">
-        <v>0.6841111814331515</v>
+        <v>0.0080378142</v>
       </c>
       <c r="F14">
-        <v>0.3628399120102928</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="G14">
-        <v>0.0007744251273875179</v>
+        <v>-0.005504551799999996</v>
       </c>
       <c r="H14">
-        <v>1.655163882683691</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="I14">
-        <v>0.7786843792056469</v>
+        <v>-0.002063599</v>
       </c>
       <c r="J14">
-        <v>0.9199036601382931</v>
+        <v>45.56474799999992</v>
       </c>
       <c r="K14">
-        <v>0.3628399120102928</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="L14">
-        <v>0.6841111814331515</v>
+        <v>0.0080378142</v>
       </c>
       <c r="M14">
-        <v>0.8020074207857223</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="N14">
-        <v>0.8020074207857223</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="O14">
-        <v>1.086392908085045</v>
+        <v>0.004070094366666664</v>
       </c>
       <c r="P14">
-        <v>0.6556182511939125</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="Q14">
-        <v>0.6556182511939125</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="R14">
-        <v>0.5824236663980076</v>
+        <v>0.002172385125</v>
       </c>
       <c r="S14">
-        <v>0.5824236663980076</v>
+        <v>0.002172385125</v>
       </c>
       <c r="T14">
-        <v>0.7335795734330771</v>
+        <v>7.594776926749987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3944820215644056</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D15">
-        <v>0.9184736020164748</v>
+        <v>30.381976</v>
       </c>
       <c r="E15">
-        <v>1.219059604485593</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F15">
-        <v>0.3944820215644056</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G15">
-        <v>0.4993551020773962</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H15">
-        <v>1.105815289347597</v>
+        <v>30.381976</v>
       </c>
       <c r="I15">
-        <v>0.6051932528975573</v>
+        <v>0.0025420957</v>
       </c>
       <c r="J15">
-        <v>0.9184736020164748</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="K15">
-        <v>0.3944820215644056</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>1.219059604485593</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>1.068766603251034</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>1.068766603251034</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>1.081116165283222</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.8440050760221576</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.8440050760221577</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.7316243124077197</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.7316243124077197</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.790396478731504</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9701711638566594</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="D16">
-        <v>1.000751668414286</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="E16">
-        <v>1.020319112992273</v>
+        <v>15.189881</v>
       </c>
       <c r="F16">
-        <v>0.9701711638566594</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="G16">
-        <v>1.027961724883409</v>
+        <v>0.56694859</v>
       </c>
       <c r="H16">
-        <v>0.9998092641672222</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="I16">
-        <v>0.999808078061181</v>
+        <v>0.002122469</v>
       </c>
       <c r="J16">
-        <v>1.000751668414286</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="K16">
-        <v>0.9701711638566594</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="L16">
-        <v>1.020319112992273</v>
+        <v>15.189881</v>
       </c>
       <c r="M16">
-        <v>1.01053539070328</v>
+        <v>7.59172469955</v>
       </c>
       <c r="N16">
-        <v>1.01053539070328</v>
+        <v>7.59172469955</v>
       </c>
       <c r="O16">
-        <v>1.006960015191261</v>
+        <v>5.061857289366666</v>
       </c>
       <c r="P16">
-        <v>0.9970806484210731</v>
+        <v>5.060739626433334</v>
       </c>
       <c r="Q16">
-        <v>0.9970806484210731</v>
+        <v>5.060739626433334</v>
       </c>
       <c r="R16">
-        <v>0.9903532772799697</v>
+        <v>3.795247089875</v>
       </c>
       <c r="S16">
-        <v>0.9903532772799697</v>
+        <v>3.795247089875</v>
       </c>
       <c r="T16">
-        <v>1.003136835395839</v>
+        <v>2.626554214983333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.075172385649687</v>
+        <v>14.106961</v>
       </c>
       <c r="D17">
-        <v>0.9993272219819629</v>
+        <v>0.0015046931</v>
       </c>
       <c r="E17">
-        <v>0.9343315322384244</v>
+        <v>0.0048493251</v>
       </c>
       <c r="F17">
-        <v>1.075172385649687</v>
+        <v>14.106961</v>
       </c>
       <c r="G17">
-        <v>1.023305419677768</v>
+        <v>0.032036697</v>
       </c>
       <c r="H17">
-        <v>0.993176221886888</v>
+        <v>0.0015046931</v>
       </c>
       <c r="I17">
-        <v>1.005494507369599</v>
+        <v>0.020785436</v>
       </c>
       <c r="J17">
-        <v>0.9993272219819629</v>
+        <v>1.0599496</v>
       </c>
       <c r="K17">
-        <v>1.075172385649687</v>
+        <v>0.0015046931</v>
       </c>
       <c r="L17">
-        <v>0.9343315322384244</v>
+        <v>0.0048493251</v>
       </c>
       <c r="M17">
-        <v>0.9668293771101937</v>
+        <v>7.055905162550001</v>
       </c>
       <c r="N17">
-        <v>0.9668293771101937</v>
+        <v>7.055905162550001</v>
       </c>
       <c r="O17">
-        <v>0.9756116587024252</v>
+        <v>4.710865253700001</v>
       </c>
       <c r="P17">
-        <v>1.002943713290025</v>
+        <v>4.7044383394</v>
       </c>
       <c r="Q17">
-        <v>1.002943713290025</v>
+        <v>4.7044383394</v>
       </c>
       <c r="R17">
-        <v>1.02100088137994</v>
+        <v>3.528704927825</v>
       </c>
       <c r="S17">
-        <v>1.02100088137994</v>
+        <v>3.528704927825</v>
       </c>
       <c r="T17">
-        <v>1.005134548134055</v>
+        <v>2.5376811252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.345645936899724</v>
+        <v>-0.001217493326027397</v>
       </c>
       <c r="D18">
-        <v>1.057852301414166</v>
+        <v>5.735696288460272</v>
       </c>
       <c r="E18">
-        <v>1.039696111087976</v>
+        <v>2.658718304949041</v>
       </c>
       <c r="F18">
-        <v>1.345645936899724</v>
+        <v>-0.001217493326027397</v>
       </c>
       <c r="G18">
-        <v>1.019787663957193</v>
+        <v>2.661080776717809</v>
       </c>
       <c r="H18">
-        <v>0.9837265172870311</v>
+        <v>5.735696288460272</v>
       </c>
       <c r="I18">
-        <v>1.099519235247021</v>
+        <v>-0.0003421439115068493</v>
       </c>
       <c r="J18">
-        <v>1.057852301414166</v>
+        <v>0.001198255075342465</v>
       </c>
       <c r="K18">
-        <v>1.345645936899724</v>
+        <v>5.735696288460272</v>
       </c>
       <c r="L18">
-        <v>1.039696111087976</v>
+        <v>2.658718304949041</v>
       </c>
       <c r="M18">
-        <v>1.048774206251071</v>
+        <v>1.328750405811507</v>
       </c>
       <c r="N18">
-        <v>1.048774206251071</v>
+        <v>1.328750405811507</v>
       </c>
       <c r="O18">
-        <v>1.027091643263058</v>
+        <v>0.8857195559038354</v>
       </c>
       <c r="P18">
-        <v>1.147731449800622</v>
+        <v>2.797732366694429</v>
       </c>
       <c r="Q18">
-        <v>1.147731449800622</v>
+        <v>2.797732366694429</v>
       </c>
       <c r="R18">
-        <v>1.197210071575397</v>
+        <v>3.53222334713589</v>
       </c>
       <c r="S18">
-        <v>1.197210071575397</v>
+        <v>3.53222334713589</v>
       </c>
       <c r="T18">
-        <v>1.091037960982185</v>
+        <v>1.842522331327489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.74812012985624</v>
+        <v>3.406934216705264</v>
       </c>
       <c r="D19">
-        <v>1.553843801497538</v>
+        <v>1.704390346540527</v>
       </c>
       <c r="E19">
-        <v>1.124399133932055</v>
+        <v>2.105215039510158</v>
       </c>
       <c r="F19">
-        <v>0.74812012985624</v>
+        <v>3.406934216705264</v>
       </c>
       <c r="G19">
-        <v>1.371508485542208</v>
+        <v>0.1417101855105264</v>
       </c>
       <c r="H19">
-        <v>0.9067589015485351</v>
+        <v>1.704390346540527</v>
       </c>
       <c r="I19">
-        <v>1.302897079418992</v>
+        <v>0.03203719489436842</v>
       </c>
       <c r="J19">
-        <v>1.553843801497538</v>
+        <v>6.308808136915784</v>
       </c>
       <c r="K19">
-        <v>0.74812012985624</v>
+        <v>1.704390346540527</v>
       </c>
       <c r="L19">
-        <v>1.124399133932055</v>
+        <v>2.105215039510158</v>
       </c>
       <c r="M19">
-        <v>1.339121467714796</v>
+        <v>2.756074628107711</v>
       </c>
       <c r="N19">
-        <v>1.339121467714796</v>
+        <v>2.756074628107711</v>
       </c>
       <c r="O19">
-        <v>1.195000612326043</v>
+        <v>1.84806215036993</v>
       </c>
       <c r="P19">
-        <v>1.142121021761944</v>
+        <v>2.405513200918649</v>
       </c>
       <c r="Q19">
-        <v>1.142121021761944</v>
+        <v>2.405513200918649</v>
       </c>
       <c r="R19">
-        <v>1.043620798785518</v>
+        <v>2.230232487324118</v>
       </c>
       <c r="S19">
-        <v>1.043620798785518</v>
+        <v>2.230232487324118</v>
       </c>
       <c r="T19">
-        <v>1.167921255299261</v>
+        <v>2.283182520012771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.001263754283210526</v>
+      </c>
+      <c r="D20">
+        <v>2.504721636721895</v>
+      </c>
+      <c r="E20">
+        <v>0.2668171258141579</v>
+      </c>
+      <c r="F20">
+        <v>0.001263754283210526</v>
+      </c>
+      <c r="G20">
+        <v>1.148858639121053</v>
+      </c>
+      <c r="H20">
+        <v>2.504721636721895</v>
+      </c>
+      <c r="I20">
+        <v>0.3742434583513684</v>
+      </c>
+      <c r="J20">
+        <v>3.752783996555207</v>
+      </c>
+      <c r="K20">
+        <v>2.504721636721895</v>
+      </c>
+      <c r="L20">
+        <v>0.2668171258141579</v>
+      </c>
+      <c r="M20">
+        <v>0.1340404400486842</v>
+      </c>
+      <c r="N20">
+        <v>0.1340404400486842</v>
+      </c>
+      <c r="O20">
+        <v>0.2141081128162456</v>
+      </c>
+      <c r="P20">
+        <v>0.9242675056064211</v>
+      </c>
+      <c r="Q20">
+        <v>0.924267505606421</v>
+      </c>
+      <c r="R20">
+        <v>1.31938103838529</v>
+      </c>
+      <c r="S20">
+        <v>1.31938103838529</v>
+      </c>
+      <c r="T20">
+        <v>1.341448101807815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9199036601382922</v>
+      </c>
+      <c r="D21">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="E21">
+        <v>0.684111181433151</v>
+      </c>
+      <c r="F21">
+        <v>0.9199036601382922</v>
+      </c>
+      <c r="G21">
+        <v>0.7786843792056468</v>
+      </c>
+      <c r="H21">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="I21">
+        <v>1.655163882683691</v>
+      </c>
+      <c r="J21">
+        <v>0.0007744251273875196</v>
+      </c>
+      <c r="K21">
+        <v>0.362839912010293</v>
+      </c>
+      <c r="L21">
+        <v>0.684111181433151</v>
+      </c>
+      <c r="M21">
+        <v>0.8020074207857215</v>
+      </c>
+      <c r="N21">
+        <v>0.8020074207857215</v>
+      </c>
+      <c r="O21">
+        <v>1.086392908085045</v>
+      </c>
+      <c r="P21">
+        <v>0.655618251193912</v>
+      </c>
+      <c r="Q21">
+        <v>0.655618251193912</v>
+      </c>
+      <c r="R21">
+        <v>0.5824236663980074</v>
+      </c>
+      <c r="S21">
+        <v>0.5824236663980074</v>
+      </c>
+      <c r="T21">
+        <v>0.7335795734330769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9184736020164749</v>
+      </c>
+      <c r="D22">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="E22">
+        <v>1.219059604485593</v>
+      </c>
+      <c r="F22">
+        <v>0.9184736020164749</v>
+      </c>
+      <c r="G22">
+        <v>0.6051932528975573</v>
+      </c>
+      <c r="H22">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="I22">
+        <v>1.105815289347597</v>
+      </c>
+      <c r="J22">
+        <v>0.4993551020773961</v>
+      </c>
+      <c r="K22">
+        <v>0.3944820215644057</v>
+      </c>
+      <c r="L22">
+        <v>1.219059604485593</v>
+      </c>
+      <c r="M22">
+        <v>1.068766603251034</v>
+      </c>
+      <c r="N22">
+        <v>1.068766603251034</v>
+      </c>
+      <c r="O22">
+        <v>1.081116165283222</v>
+      </c>
+      <c r="P22">
+        <v>0.8440050760221579</v>
+      </c>
+      <c r="Q22">
+        <v>0.8440050760221579</v>
+      </c>
+      <c r="R22">
+        <v>0.7316243124077199</v>
+      </c>
+      <c r="S22">
+        <v>0.7316243124077199</v>
+      </c>
+      <c r="T22">
+        <v>0.790396478731504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.2732069801418922</v>
+      </c>
+      <c r="D23">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="E23">
+        <v>0.5352548914693838</v>
+      </c>
+      <c r="F23">
+        <v>0.2732069801418922</v>
+      </c>
+      <c r="G23">
+        <v>1.076081266117525</v>
+      </c>
+      <c r="H23">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="I23">
+        <v>1.280399484863902</v>
+      </c>
+      <c r="J23">
+        <v>0.001005863119924909</v>
+      </c>
+      <c r="K23">
+        <v>1.839021103484145</v>
+      </c>
+      <c r="L23">
+        <v>0.5352548914693838</v>
+      </c>
+      <c r="M23">
+        <v>0.404230935805638</v>
+      </c>
+      <c r="N23">
+        <v>0.404230935805638</v>
+      </c>
+      <c r="O23">
+        <v>0.6962871188250591</v>
+      </c>
+      <c r="P23">
+        <v>0.8824943250318068</v>
+      </c>
+      <c r="Q23">
+        <v>0.8824943250318068</v>
+      </c>
+      <c r="R23">
+        <v>1.121626019644891</v>
+      </c>
+      <c r="S23">
+        <v>1.121626019644891</v>
+      </c>
+      <c r="T23">
+        <v>0.834161598199462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.59856177344524</v>
+      </c>
+      <c r="D24">
+        <v>0.9996289756698536</v>
+      </c>
+      <c r="E24">
+        <v>1.255764067592258</v>
+      </c>
+      <c r="F24">
+        <v>1.59856177344524</v>
+      </c>
+      <c r="G24">
+        <v>1.063621865688289</v>
+      </c>
+      <c r="H24">
+        <v>0.9996289756698536</v>
+      </c>
+      <c r="I24">
+        <v>0.6971390918901105</v>
+      </c>
+      <c r="J24">
+        <v>0.4158280523834147</v>
+      </c>
+      <c r="K24">
+        <v>0.9996289756698536</v>
+      </c>
+      <c r="L24">
+        <v>1.255764067592258</v>
+      </c>
+      <c r="M24">
+        <v>1.427162920518749</v>
+      </c>
+      <c r="N24">
+        <v>1.427162920518749</v>
+      </c>
+      <c r="O24">
+        <v>1.183821644309203</v>
+      </c>
+      <c r="P24">
+        <v>1.284651605569117</v>
+      </c>
+      <c r="Q24">
+        <v>1.284651605569117</v>
+      </c>
+      <c r="R24">
+        <v>1.213395948094301</v>
+      </c>
+      <c r="S24">
+        <v>1.213395948094301</v>
+      </c>
+      <c r="T24">
+        <v>1.005090637778194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.009567260736726157</v>
+      </c>
+      <c r="D25">
+        <v>1.824281514095588</v>
+      </c>
+      <c r="E25">
+        <v>0.3280135574421031</v>
+      </c>
+      <c r="F25">
+        <v>0.009567260736726157</v>
+      </c>
+      <c r="G25">
+        <v>1.123622606426311</v>
+      </c>
+      <c r="H25">
+        <v>1.824281514095588</v>
+      </c>
+      <c r="I25">
+        <v>2.033053465443404</v>
+      </c>
+      <c r="J25">
+        <v>0.0009584278464718437</v>
+      </c>
+      <c r="K25">
+        <v>1.824281514095588</v>
+      </c>
+      <c r="L25">
+        <v>0.3280135574421031</v>
+      </c>
+      <c r="M25">
+        <v>0.1687904090894146</v>
+      </c>
+      <c r="N25">
+        <v>0.1687904090894146</v>
+      </c>
+      <c r="O25">
+        <v>0.7902114278740778</v>
+      </c>
+      <c r="P25">
+        <v>0.7206207774248057</v>
+      </c>
+      <c r="Q25">
+        <v>0.7206207774248057</v>
+      </c>
+      <c r="R25">
+        <v>0.9965359615925011</v>
+      </c>
+      <c r="S25">
+        <v>0.9965359615925011</v>
+      </c>
+      <c r="T25">
+        <v>0.8865828053317674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3.037750486296133</v>
+      </c>
+      <c r="D26">
+        <v>0.3693154959894325</v>
+      </c>
+      <c r="E26">
+        <v>1.365423249802593</v>
+      </c>
+      <c r="F26">
+        <v>3.037750486296133</v>
+      </c>
+      <c r="G26">
+        <v>0.963316941984917</v>
+      </c>
+      <c r="H26">
+        <v>0.3693154959894325</v>
+      </c>
+      <c r="I26">
+        <v>0.5178178364214916</v>
+      </c>
+      <c r="J26">
+        <v>0.3699512478865298</v>
+      </c>
+      <c r="K26">
+        <v>0.3693154959894325</v>
+      </c>
+      <c r="L26">
+        <v>1.365423249802593</v>
+      </c>
+      <c r="M26">
+        <v>2.201586868049363</v>
+      </c>
+      <c r="N26">
+        <v>2.201586868049363</v>
+      </c>
+      <c r="O26">
+        <v>1.640330524173406</v>
+      </c>
+      <c r="P26">
+        <v>1.590829744029386</v>
+      </c>
+      <c r="Q26">
+        <v>1.590829744029386</v>
+      </c>
+      <c r="R26">
+        <v>1.285451182019398</v>
+      </c>
+      <c r="S26">
+        <v>1.285451182019398</v>
+      </c>
+      <c r="T26">
+        <v>1.103929209730183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.006187209955326678</v>
+      </c>
+      <c r="D27">
+        <v>1.23463009038109</v>
+      </c>
+      <c r="E27">
+        <v>0.27367492584164</v>
+      </c>
+      <c r="F27">
+        <v>0.006187209955326678</v>
+      </c>
+      <c r="G27">
+        <v>0.6491880757340048</v>
+      </c>
+      <c r="H27">
+        <v>1.23463009038109</v>
+      </c>
+      <c r="I27">
+        <v>1.684784963766453</v>
+      </c>
+      <c r="J27">
+        <v>5.329798381816685</v>
+      </c>
+      <c r="K27">
+        <v>1.23463009038109</v>
+      </c>
+      <c r="L27">
+        <v>0.27367492584164</v>
+      </c>
+      <c r="M27">
+        <v>0.1399310678984834</v>
+      </c>
+      <c r="N27">
+        <v>0.1399310678984834</v>
+      </c>
+      <c r="O27">
+        <v>0.6548823665211398</v>
+      </c>
+      <c r="P27">
+        <v>0.5048307420593522</v>
+      </c>
+      <c r="Q27">
+        <v>0.5048307420593521</v>
+      </c>
+      <c r="R27">
+        <v>0.6872805791397865</v>
+      </c>
+      <c r="S27">
+        <v>0.6872805791397865</v>
+      </c>
+      <c r="T27">
+        <v>1.529710607915866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>6.074793092269696</v>
+      </c>
+      <c r="D28">
+        <v>0.008573179313807033</v>
+      </c>
+      <c r="E28">
+        <v>0.4135879779026718</v>
+      </c>
+      <c r="F28">
+        <v>6.074793092269696</v>
+      </c>
+      <c r="G28">
+        <v>2.219038070281515</v>
+      </c>
+      <c r="H28">
+        <v>0.008573179313807033</v>
+      </c>
+      <c r="I28">
+        <v>0.02470284403009109</v>
+      </c>
+      <c r="J28">
+        <v>0.004421557724643254</v>
+      </c>
+      <c r="K28">
+        <v>0.008573179313807033</v>
+      </c>
+      <c r="L28">
+        <v>0.4135879779026718</v>
+      </c>
+      <c r="M28">
+        <v>3.244190535086184</v>
+      </c>
+      <c r="N28">
+        <v>3.244190535086184</v>
+      </c>
+      <c r="O28">
+        <v>2.171027971400819</v>
+      </c>
+      <c r="P28">
+        <v>2.165651416495392</v>
+      </c>
+      <c r="Q28">
+        <v>2.165651416495392</v>
+      </c>
+      <c r="R28">
+        <v>1.626381857199995</v>
+      </c>
+      <c r="S28">
+        <v>1.626381857199995</v>
+      </c>
+      <c r="T28">
+        <v>1.457519453587071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>13.66898868476806</v>
+      </c>
+      <c r="D29">
+        <v>0.01311822996340501</v>
+      </c>
+      <c r="E29">
+        <v>0.00654498621062177</v>
+      </c>
+      <c r="F29">
+        <v>13.66898868476806</v>
+      </c>
+      <c r="G29">
+        <v>0.7590429181262376</v>
+      </c>
+      <c r="H29">
+        <v>0.01311822996340501</v>
+      </c>
+      <c r="I29">
+        <v>0.04570814529625945</v>
+      </c>
+      <c r="J29">
+        <v>0.01078716341782978</v>
+      </c>
+      <c r="K29">
+        <v>0.01311822996340501</v>
+      </c>
+      <c r="L29">
+        <v>0.00654498621062177</v>
+      </c>
+      <c r="M29">
+        <v>6.837766835489342</v>
+      </c>
+      <c r="N29">
+        <v>6.837766835489342</v>
+      </c>
+      <c r="O29">
+        <v>4.573747272091648</v>
+      </c>
+      <c r="P29">
+        <v>4.562883966980697</v>
+      </c>
+      <c r="Q29">
+        <v>4.562883966980697</v>
+      </c>
+      <c r="R29">
+        <v>3.425442532726374</v>
+      </c>
+      <c r="S29">
+        <v>3.425442532726374</v>
+      </c>
+      <c r="T29">
+        <v>2.417365021297069</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8940823806291546</v>
+        <v>0.7812719153793067</v>
       </c>
       <c r="D4">
-        <v>0.9079952684218774</v>
+        <v>0.8515652191735817</v>
       </c>
       <c r="E4">
-        <v>1.386951856494411</v>
+        <v>1.024799372617669</v>
       </c>
       <c r="F4">
-        <v>0.8940823806291546</v>
+        <v>0.7812719153793067</v>
       </c>
       <c r="G4">
-        <v>1.056034871121642</v>
+        <v>0.964064361407168</v>
       </c>
       <c r="H4">
-        <v>0.9079952684218774</v>
+        <v>0.8515652191735817</v>
       </c>
       <c r="I4">
-        <v>0.8551304350901764</v>
+        <v>0.8099267028277859</v>
       </c>
       <c r="J4">
-        <v>1.123349190840732</v>
+        <v>3.303495237859861</v>
       </c>
       <c r="K4">
-        <v>0.9079952684218774</v>
+        <v>0.8515652191735817</v>
       </c>
       <c r="L4">
-        <v>1.386951856494411</v>
+        <v>1.024799372617669</v>
       </c>
       <c r="M4">
-        <v>1.140517118561783</v>
+        <v>0.9030356439984879</v>
       </c>
       <c r="N4">
-        <v>1.140517118561783</v>
+        <v>0.9030356439984879</v>
       </c>
       <c r="O4">
-        <v>1.045388224071247</v>
+        <v>0.8719993302749206</v>
       </c>
       <c r="P4">
-        <v>1.063009835181814</v>
+        <v>0.8858788357235192</v>
       </c>
       <c r="Q4">
-        <v>1.063009835181814</v>
+        <v>0.8858788357235191</v>
       </c>
       <c r="R4">
-        <v>1.02425619349183</v>
+        <v>0.8773004315860348</v>
       </c>
       <c r="S4">
-        <v>1.02425619349183</v>
+        <v>0.8773004315860348</v>
       </c>
       <c r="T4">
-        <v>1.037257333766332</v>
+        <v>1.289187134877562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7312658233457493</v>
+        <v>0.001022194121759652</v>
       </c>
       <c r="D5">
-        <v>0.9912424044321198</v>
+        <v>2.018220644889492</v>
       </c>
       <c r="E5">
-        <v>1.019363710135644</v>
+        <v>0.293315549327302</v>
       </c>
       <c r="F5">
-        <v>0.7312658233457493</v>
+        <v>0.001022194121759652</v>
       </c>
       <c r="G5">
-        <v>0.9823545311356645</v>
+        <v>1.267143397050756</v>
       </c>
       <c r="H5">
-        <v>0.9912424044321198</v>
+        <v>2.018220644889492</v>
       </c>
       <c r="I5">
-        <v>0.762981707676165</v>
+        <v>0.4137081903294755</v>
       </c>
       <c r="J5">
-        <v>4.258274577398906</v>
+        <v>1.090193179337291</v>
       </c>
       <c r="K5">
-        <v>0.9912424044321198</v>
+        <v>2.018220644889492</v>
       </c>
       <c r="L5">
-        <v>1.019363710135644</v>
+        <v>0.293315549327302</v>
       </c>
       <c r="M5">
-        <v>0.8753147667406969</v>
+        <v>0.1471688717245308</v>
       </c>
       <c r="N5">
-        <v>0.8753147667406969</v>
+        <v>0.1471688717245308</v>
       </c>
       <c r="O5">
-        <v>0.8378704137191862</v>
+        <v>0.2360153112595124</v>
       </c>
       <c r="P5">
-        <v>0.9139573126378379</v>
+        <v>0.7708527961128512</v>
       </c>
       <c r="Q5">
-        <v>0.9139573126378377</v>
+        <v>0.7708527961128513</v>
       </c>
       <c r="R5">
-        <v>0.9332785855864083</v>
+        <v>1.082694758307011</v>
       </c>
       <c r="S5">
-        <v>0.9332785855864083</v>
+        <v>1.082694758307011</v>
       </c>
       <c r="T5">
-        <v>1.457580459020708</v>
+        <v>0.8472671925093461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3957047700154648</v>
+        <v>0.8940823806291546</v>
       </c>
       <c r="D6">
-        <v>0.4356260665718095</v>
+        <v>0.9079952684218774</v>
       </c>
       <c r="E6">
-        <v>0.5109108941709031</v>
+        <v>1.386951856494411</v>
       </c>
       <c r="F6">
-        <v>0.3957047700154648</v>
+        <v>0.8940823806291546</v>
       </c>
       <c r="G6">
-        <v>0.4773583534150067</v>
+        <v>1.056034871121642</v>
       </c>
       <c r="H6">
-        <v>0.4356260665718095</v>
+        <v>0.9079952684218774</v>
       </c>
       <c r="I6">
-        <v>0.4045657750550431</v>
+        <v>0.8551304350901764</v>
       </c>
       <c r="J6">
-        <v>24.38394307644118</v>
+        <v>1.123349190840732</v>
       </c>
       <c r="K6">
-        <v>0.4356260665718095</v>
+        <v>0.9079952684218774</v>
       </c>
       <c r="L6">
-        <v>0.5109108941709031</v>
+        <v>1.386951856494411</v>
       </c>
       <c r="M6">
-        <v>0.4533078320931839</v>
+        <v>1.140517118561783</v>
       </c>
       <c r="N6">
-        <v>0.4533078320931839</v>
+        <v>1.140517118561783</v>
       </c>
       <c r="O6">
-        <v>0.437060479747137</v>
+        <v>1.045388224071247</v>
       </c>
       <c r="P6">
-        <v>0.4474139102527258</v>
+        <v>1.063009835181814</v>
       </c>
       <c r="Q6">
-        <v>0.4474139102527258</v>
+        <v>1.063009835181814</v>
       </c>
       <c r="R6">
-        <v>0.4444669493324967</v>
+        <v>1.02425619349183</v>
       </c>
       <c r="S6">
-        <v>0.4444669493324967</v>
+        <v>1.02425619349183</v>
       </c>
       <c r="T6">
-        <v>4.434684822611567</v>
+        <v>1.037257333766332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9518581875329304</v>
+        <v>0.7312658233457493</v>
       </c>
       <c r="D7">
-        <v>1.178866985761108</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="E7">
-        <v>1.068697153060727</v>
+        <v>1.019363710135644</v>
       </c>
       <c r="F7">
-        <v>0.9518581875329304</v>
+        <v>0.7312658233457493</v>
       </c>
       <c r="G7">
-        <v>1.078950078165327</v>
+        <v>0.9823545311356645</v>
       </c>
       <c r="H7">
-        <v>1.178866985761108</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="I7">
-        <v>0.9528833095128711</v>
+        <v>0.762981707676165</v>
       </c>
       <c r="J7">
-        <v>0.9719218545937904</v>
+        <v>4.258274577398906</v>
       </c>
       <c r="K7">
-        <v>1.178866985761108</v>
+        <v>0.9912424044321198</v>
       </c>
       <c r="L7">
-        <v>1.068697153060727</v>
+        <v>1.019363710135644</v>
       </c>
       <c r="M7">
-        <v>1.010277670296829</v>
+        <v>0.8753147667406969</v>
       </c>
       <c r="N7">
-        <v>1.010277670296829</v>
+        <v>0.8753147667406969</v>
       </c>
       <c r="O7">
-        <v>0.9911462167021762</v>
+        <v>0.8378704137191862</v>
       </c>
       <c r="P7">
-        <v>1.066474108784922</v>
+        <v>0.9139573126378379</v>
       </c>
       <c r="Q7">
-        <v>1.066474108784922</v>
+        <v>0.9139573126378377</v>
       </c>
       <c r="R7">
-        <v>1.094572328028969</v>
+        <v>0.9332785855864083</v>
       </c>
       <c r="S7">
-        <v>1.094572328028969</v>
+        <v>0.9332785855864083</v>
       </c>
       <c r="T7">
-        <v>1.033862928104459</v>
+        <v>1.457580459020708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999327221981962</v>
+        <v>0.3957047700154648</v>
       </c>
       <c r="D8">
-        <v>1.075172385649689</v>
+        <v>0.4356260665718095</v>
       </c>
       <c r="E8">
-        <v>0.934331532238425</v>
+        <v>0.5109108941709031</v>
       </c>
       <c r="F8">
-        <v>0.999327221981962</v>
+        <v>0.3957047700154648</v>
       </c>
       <c r="G8">
-        <v>1.005494507369599</v>
+        <v>0.4773583534150067</v>
       </c>
       <c r="H8">
-        <v>1.075172385649689</v>
+        <v>0.4356260665718095</v>
       </c>
       <c r="I8">
-        <v>0.9931762218868876</v>
+        <v>0.4045657750550431</v>
       </c>
       <c r="J8">
-        <v>1.023305419677767</v>
+        <v>24.38394307644118</v>
       </c>
       <c r="K8">
-        <v>1.075172385649689</v>
+        <v>0.4356260665718095</v>
       </c>
       <c r="L8">
-        <v>0.934331532238425</v>
+        <v>0.5109108941709031</v>
       </c>
       <c r="M8">
-        <v>0.9668293771101935</v>
+        <v>0.4533078320931839</v>
       </c>
       <c r="N8">
-        <v>0.9668293771101935</v>
+        <v>0.4533078320931839</v>
       </c>
       <c r="O8">
-        <v>0.9756116587024248</v>
+        <v>0.437060479747137</v>
       </c>
       <c r="P8">
-        <v>1.002943713290025</v>
+        <v>0.4474139102527258</v>
       </c>
       <c r="Q8">
-        <v>1.002943713290025</v>
+        <v>0.4474139102527258</v>
       </c>
       <c r="R8">
-        <v>1.021000881379941</v>
+        <v>0.4444669493324967</v>
       </c>
       <c r="S8">
-        <v>1.021000881379941</v>
+        <v>0.4444669493324967</v>
       </c>
       <c r="T8">
-        <v>1.005134548134055</v>
+        <v>4.434684822611567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9680539446822281</v>
+        <v>0.9518581875329304</v>
       </c>
       <c r="D9">
-        <v>1.425023186308709</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="E9">
-        <v>1.144824892581602</v>
+        <v>1.068697153060727</v>
       </c>
       <c r="F9">
-        <v>0.9680539446822281</v>
+        <v>0.9518581875329304</v>
       </c>
       <c r="G9">
-        <v>1.16503995001841</v>
+        <v>1.078950078165327</v>
       </c>
       <c r="H9">
-        <v>1.425023186308709</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="I9">
-        <v>0.8991923623970581</v>
+        <v>0.9528833095128711</v>
       </c>
       <c r="J9">
-        <v>1.006775023768559</v>
+        <v>0.9719218545937904</v>
       </c>
       <c r="K9">
-        <v>1.425023186308709</v>
+        <v>1.178866985761108</v>
       </c>
       <c r="L9">
-        <v>1.144824892581602</v>
+        <v>1.068697153060727</v>
       </c>
       <c r="M9">
-        <v>1.056439418631915</v>
+        <v>1.010277670296829</v>
       </c>
       <c r="N9">
-        <v>1.056439418631915</v>
+        <v>1.010277670296829</v>
       </c>
       <c r="O9">
-        <v>1.004023733220296</v>
+        <v>0.9911462167021762</v>
       </c>
       <c r="P9">
-        <v>1.179300674524179</v>
+        <v>1.066474108784922</v>
       </c>
       <c r="Q9">
-        <v>1.17930067452418</v>
+        <v>1.066474108784922</v>
       </c>
       <c r="R9">
-        <v>1.240731302470312</v>
+        <v>1.094572328028969</v>
       </c>
       <c r="S9">
-        <v>1.240731302470312</v>
+        <v>1.094572328028969</v>
       </c>
       <c r="T9">
-        <v>1.101484893292761</v>
+        <v>1.033862928104459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5147203555159724</v>
+        <v>0.999327221981962</v>
       </c>
       <c r="D10">
-        <v>0.4154076793830138</v>
+        <v>1.075172385649689</v>
       </c>
       <c r="E10">
-        <v>0.4688233049472011</v>
+        <v>0.934331532238425</v>
       </c>
       <c r="F10">
-        <v>0.5147203555159724</v>
+        <v>0.999327221981962</v>
       </c>
       <c r="G10">
-        <v>0.4666478444588962</v>
+        <v>1.005494507369599</v>
       </c>
       <c r="H10">
-        <v>0.4154076793830138</v>
+        <v>1.075172385649689</v>
       </c>
       <c r="I10">
-        <v>0.3593442808984897</v>
+        <v>0.9931762218868876</v>
       </c>
       <c r="J10">
-        <v>24.80946027493194</v>
+        <v>1.023305419677767</v>
       </c>
       <c r="K10">
-        <v>0.4154076793830138</v>
+        <v>1.075172385649689</v>
       </c>
       <c r="L10">
-        <v>0.4688233049472011</v>
+        <v>0.934331532238425</v>
       </c>
       <c r="M10">
-        <v>0.4917718302315868</v>
+        <v>0.9668293771101935</v>
       </c>
       <c r="N10">
-        <v>0.4917718302315868</v>
+        <v>0.9668293771101935</v>
       </c>
       <c r="O10">
-        <v>0.4476293137872211</v>
+        <v>0.9756116587024248</v>
       </c>
       <c r="P10">
-        <v>0.4663171132820625</v>
+        <v>1.002943713290025</v>
       </c>
       <c r="Q10">
-        <v>0.4663171132820625</v>
+        <v>1.002943713290025</v>
       </c>
       <c r="R10">
-        <v>0.4535897548073003</v>
+        <v>1.021000881379941</v>
       </c>
       <c r="S10">
-        <v>0.4535897548073003</v>
+        <v>1.021000881379941</v>
       </c>
       <c r="T10">
-        <v>4.505733956689252</v>
+        <v>1.005134548134055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6776342820616565</v>
+        <v>0.9680539446822281</v>
       </c>
       <c r="D11">
-        <v>1.023141648035315</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="E11">
-        <v>1.378869844067988</v>
+        <v>1.144824892581602</v>
       </c>
       <c r="F11">
-        <v>0.6776342820616565</v>
+        <v>0.9680539446822281</v>
       </c>
       <c r="G11">
-        <v>1.158214906435336</v>
+        <v>1.16503995001841</v>
       </c>
       <c r="H11">
-        <v>1.023141648035315</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="I11">
-        <v>0.8836015009060419</v>
+        <v>0.8991923623970581</v>
       </c>
       <c r="J11">
-        <v>0.6105451049409774</v>
+        <v>1.006775023768559</v>
       </c>
       <c r="K11">
-        <v>1.023141648035315</v>
+        <v>1.425023186308709</v>
       </c>
       <c r="L11">
-        <v>1.378869844067988</v>
+        <v>1.144824892581602</v>
       </c>
       <c r="M11">
-        <v>1.028252063064822</v>
+        <v>1.056439418631915</v>
       </c>
       <c r="N11">
-        <v>1.028252063064822</v>
+        <v>1.056439418631915</v>
       </c>
       <c r="O11">
-        <v>0.9800352090118953</v>
+        <v>1.004023733220296</v>
       </c>
       <c r="P11">
-        <v>1.02654859138832</v>
+        <v>1.179300674524179</v>
       </c>
       <c r="Q11">
-        <v>1.02654859138832</v>
+        <v>1.17930067452418</v>
       </c>
       <c r="R11">
-        <v>1.025696855550069</v>
+        <v>1.240731302470312</v>
       </c>
       <c r="S11">
-        <v>1.025696855550069</v>
+        <v>1.240731302470312</v>
       </c>
       <c r="T11">
-        <v>0.9553345477412192</v>
+        <v>1.101484893292761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.042244323984107</v>
+        <v>0.5147203555159724</v>
       </c>
       <c r="D12">
-        <v>0.7583734891534419</v>
+        <v>0.4154076793830138</v>
       </c>
       <c r="E12">
-        <v>0.9562426601600553</v>
+        <v>0.4688233049472011</v>
       </c>
       <c r="F12">
-        <v>1.042244323984107</v>
+        <v>0.5147203555159724</v>
       </c>
       <c r="G12">
-        <v>0.8817322131129502</v>
+        <v>0.4666478444588962</v>
       </c>
       <c r="H12">
-        <v>0.7583734891534419</v>
+        <v>0.4154076793830138</v>
       </c>
       <c r="I12">
-        <v>0.6775880526271422</v>
+        <v>0.3593442808984897</v>
       </c>
       <c r="J12">
-        <v>5.544631364771349</v>
+        <v>24.80946027493194</v>
       </c>
       <c r="K12">
-        <v>0.7583734891534419</v>
+        <v>0.4154076793830138</v>
       </c>
       <c r="L12">
-        <v>0.9562426601600553</v>
+        <v>0.4688233049472011</v>
       </c>
       <c r="M12">
-        <v>0.999243492072081</v>
+        <v>0.4917718302315868</v>
       </c>
       <c r="N12">
-        <v>0.999243492072081</v>
+        <v>0.4917718302315868</v>
       </c>
       <c r="O12">
-        <v>0.8920250122571014</v>
+        <v>0.4476293137872211</v>
       </c>
       <c r="P12">
-        <v>0.9189534910992013</v>
+        <v>0.4663171132820625</v>
       </c>
       <c r="Q12">
-        <v>0.9189534910992013</v>
+        <v>0.4663171132820625</v>
       </c>
       <c r="R12">
-        <v>0.8788084906127615</v>
+        <v>0.4535897548073003</v>
       </c>
       <c r="S12">
-        <v>0.8788084906127615</v>
+        <v>0.4535897548073003</v>
       </c>
       <c r="T12">
-        <v>1.643468683968174</v>
+        <v>4.505733956689252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.845963686012755</v>
+        <v>0.6776342820616565</v>
       </c>
       <c r="D13">
-        <v>1.019983159474414</v>
+        <v>1.023141648035315</v>
       </c>
       <c r="E13">
-        <v>0.7828157738526575</v>
+        <v>1.378869844067988</v>
       </c>
       <c r="F13">
-        <v>1.845963686012755</v>
+        <v>0.6776342820616565</v>
       </c>
       <c r="G13">
-        <v>0.9788752446048739</v>
+        <v>1.158214906435336</v>
       </c>
       <c r="H13">
-        <v>1.019983159474414</v>
+        <v>1.023141648035315</v>
       </c>
       <c r="I13">
-        <v>1.012889068946638</v>
+        <v>0.8836015009060419</v>
       </c>
       <c r="J13">
-        <v>0.5768503629232895</v>
+        <v>0.6105451049409774</v>
       </c>
       <c r="K13">
-        <v>1.019983159474414</v>
+        <v>1.023141648035315</v>
       </c>
       <c r="L13">
-        <v>0.7828157738526575</v>
+        <v>1.378869844067988</v>
       </c>
       <c r="M13">
-        <v>1.314389729932706</v>
+        <v>1.028252063064822</v>
       </c>
       <c r="N13">
-        <v>1.314389729932706</v>
+        <v>1.028252063064822</v>
       </c>
       <c r="O13">
-        <v>1.213889509604017</v>
+        <v>0.9800352090118953</v>
       </c>
       <c r="P13">
-        <v>1.216254206446609</v>
+        <v>1.02654859138832</v>
       </c>
       <c r="Q13">
-        <v>1.216254206446609</v>
+        <v>1.02654859138832</v>
       </c>
       <c r="R13">
-        <v>1.16718644470356</v>
+        <v>1.025696855550069</v>
       </c>
       <c r="S13">
-        <v>1.16718644470356</v>
+        <v>1.025696855550069</v>
       </c>
       <c r="T13">
-        <v>1.036229549302438</v>
+        <v>0.9553345477412192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.006236067899999991</v>
+        <v>1.042244323984107</v>
       </c>
       <c r="D14">
-        <v>-0.002792170799999996</v>
+        <v>0.7583734891534419</v>
       </c>
       <c r="E14">
-        <v>0.0080378142</v>
+        <v>0.9562426601600553</v>
       </c>
       <c r="F14">
-        <v>0.006236067899999991</v>
+        <v>1.042244323984107</v>
       </c>
       <c r="G14">
-        <v>-0.005504551799999996</v>
+        <v>0.8817322131129502</v>
       </c>
       <c r="H14">
-        <v>-0.002792170799999996</v>
+        <v>0.7583734891534419</v>
       </c>
       <c r="I14">
-        <v>-0.002063599</v>
+        <v>0.6775880526271422</v>
       </c>
       <c r="J14">
-        <v>45.56474799999992</v>
+        <v>5.544631364771349</v>
       </c>
       <c r="K14">
-        <v>-0.002792170799999996</v>
+        <v>0.7583734891534419</v>
       </c>
       <c r="L14">
-        <v>0.0080378142</v>
+        <v>0.9562426601600553</v>
       </c>
       <c r="M14">
-        <v>0.007136941049999995</v>
+        <v>0.999243492072081</v>
       </c>
       <c r="N14">
-        <v>0.007136941049999995</v>
+        <v>0.999243492072081</v>
       </c>
       <c r="O14">
-        <v>0.004070094366666664</v>
+        <v>0.8920250122571014</v>
       </c>
       <c r="P14">
-        <v>0.003827237099999999</v>
+        <v>0.9189534910992013</v>
       </c>
       <c r="Q14">
-        <v>0.003827237099999999</v>
+        <v>0.9189534910992013</v>
       </c>
       <c r="R14">
-        <v>0.002172385125</v>
+        <v>0.8788084906127615</v>
       </c>
       <c r="S14">
-        <v>0.002172385125</v>
+        <v>0.8788084906127615</v>
       </c>
       <c r="T14">
-        <v>7.594776926749987</v>
+        <v>1.643468683968174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0030969418</v>
+        <v>1.845963686012755</v>
       </c>
       <c r="D15">
-        <v>30.381976</v>
+        <v>1.019983159474414</v>
       </c>
       <c r="E15">
-        <v>-0.0012295708</v>
+        <v>0.7828157738526575</v>
       </c>
       <c r="F15">
-        <v>0.0030969418</v>
+        <v>1.845963686012755</v>
       </c>
       <c r="G15">
-        <v>0.0037430372</v>
+        <v>0.9788752446048739</v>
       </c>
       <c r="H15">
-        <v>30.381976</v>
+        <v>1.019983159474414</v>
       </c>
       <c r="I15">
-        <v>0.0025420957</v>
+        <v>1.012889068946638</v>
       </c>
       <c r="J15">
-        <v>-0.0027921709</v>
+        <v>0.5768503629232895</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>1.019983159474414</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>0.7828157738526575</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>1.314389729932706</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>1.314389729932706</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>1.213889509604017</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>1.216254206446609</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>1.216254206446609</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>1.16718644470356</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>1.16718644470356</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>1.036229549302438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0064316009</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="D16">
-        <v>-0.0012305198</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="E16">
-        <v>15.189881</v>
+        <v>0.0080378142</v>
       </c>
       <c r="F16">
-        <v>-0.0064316009</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="G16">
-        <v>0.56694859</v>
+        <v>-0.005504551799999996</v>
       </c>
       <c r="H16">
-        <v>-0.0012305198</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="I16">
-        <v>0.002122469</v>
+        <v>-0.002063599</v>
       </c>
       <c r="J16">
-        <v>0.008035351600000001</v>
+        <v>45.56474799999992</v>
       </c>
       <c r="K16">
-        <v>-0.0012305198</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="L16">
-        <v>15.189881</v>
+        <v>0.0080378142</v>
       </c>
       <c r="M16">
-        <v>7.59172469955</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="N16">
-        <v>7.59172469955</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="O16">
-        <v>5.061857289366666</v>
+        <v>0.004070094366666664</v>
       </c>
       <c r="P16">
-        <v>5.060739626433334</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="Q16">
-        <v>5.060739626433334</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="R16">
-        <v>3.795247089875</v>
+        <v>0.002172385125</v>
       </c>
       <c r="S16">
-        <v>3.795247089875</v>
+        <v>0.002172385125</v>
       </c>
       <c r="T16">
-        <v>2.626554214983333</v>
+        <v>7.594776926749987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>14.106961</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D17">
-        <v>0.0015046931</v>
+        <v>30.381976</v>
       </c>
       <c r="E17">
-        <v>0.0048493251</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F17">
-        <v>14.106961</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G17">
-        <v>0.032036697</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H17">
-        <v>0.0015046931</v>
+        <v>30.381976</v>
       </c>
       <c r="I17">
-        <v>0.020785436</v>
+        <v>0.0025420957</v>
       </c>
       <c r="J17">
-        <v>1.0599496</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="K17">
-        <v>0.0015046931</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>0.0048493251</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>7.055905162550001</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>7.055905162550001</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>4.710865253700001</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>4.7044383394</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>4.7044383394</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>3.528704927825</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>3.528704927825</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>2.5376811252</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>-0.001217493326027397</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="D18">
-        <v>5.735696288460272</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="E18">
-        <v>2.658718304949041</v>
+        <v>15.189881</v>
       </c>
       <c r="F18">
-        <v>-0.001217493326027397</v>
+        <v>-0.0064316009</v>
       </c>
       <c r="G18">
-        <v>2.661080776717809</v>
+        <v>0.56694859</v>
       </c>
       <c r="H18">
-        <v>5.735696288460272</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="I18">
-        <v>-0.0003421439115068493</v>
+        <v>0.002122469</v>
       </c>
       <c r="J18">
-        <v>0.001198255075342465</v>
+        <v>0.008035351600000001</v>
       </c>
       <c r="K18">
-        <v>5.735696288460272</v>
+        <v>-0.0012305198</v>
       </c>
       <c r="L18">
-        <v>2.658718304949041</v>
+        <v>15.189881</v>
       </c>
       <c r="M18">
-        <v>1.328750405811507</v>
+        <v>7.59172469955</v>
       </c>
       <c r="N18">
-        <v>1.328750405811507</v>
+        <v>7.59172469955</v>
       </c>
       <c r="O18">
-        <v>0.8857195559038354</v>
+        <v>5.061857289366666</v>
       </c>
       <c r="P18">
-        <v>2.797732366694429</v>
+        <v>5.060739626433334</v>
       </c>
       <c r="Q18">
-        <v>2.797732366694429</v>
+        <v>5.060739626433334</v>
       </c>
       <c r="R18">
-        <v>3.53222334713589</v>
+        <v>3.795247089875</v>
       </c>
       <c r="S18">
-        <v>3.53222334713589</v>
+        <v>3.795247089875</v>
       </c>
       <c r="T18">
-        <v>1.842522331327489</v>
+        <v>2.626554214983333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.406934216705264</v>
+        <v>14.106961</v>
       </c>
       <c r="D19">
-        <v>1.704390346540527</v>
+        <v>0.0015046931</v>
       </c>
       <c r="E19">
-        <v>2.105215039510158</v>
+        <v>0.0048493251</v>
       </c>
       <c r="F19">
-        <v>3.406934216705264</v>
+        <v>14.106961</v>
       </c>
       <c r="G19">
-        <v>0.1417101855105264</v>
+        <v>0.032036697</v>
       </c>
       <c r="H19">
-        <v>1.704390346540527</v>
+        <v>0.0015046931</v>
       </c>
       <c r="I19">
-        <v>0.03203719489436842</v>
+        <v>0.020785436</v>
       </c>
       <c r="J19">
-        <v>6.308808136915784</v>
+        <v>1.0599496</v>
       </c>
       <c r="K19">
-        <v>1.704390346540527</v>
+        <v>0.0015046931</v>
       </c>
       <c r="L19">
-        <v>2.105215039510158</v>
+        <v>0.0048493251</v>
       </c>
       <c r="M19">
-        <v>2.756074628107711</v>
+        <v>7.055905162550001</v>
       </c>
       <c r="N19">
-        <v>2.756074628107711</v>
+        <v>7.055905162550001</v>
       </c>
       <c r="O19">
-        <v>1.84806215036993</v>
+        <v>4.710865253700001</v>
       </c>
       <c r="P19">
-        <v>2.405513200918649</v>
+        <v>4.7044383394</v>
       </c>
       <c r="Q19">
-        <v>2.405513200918649</v>
+        <v>4.7044383394</v>
       </c>
       <c r="R19">
-        <v>2.230232487324118</v>
+        <v>3.528704927825</v>
       </c>
       <c r="S19">
-        <v>2.230232487324118</v>
+        <v>3.528704927825</v>
       </c>
       <c r="T19">
-        <v>2.283182520012771</v>
+        <v>2.5376811252</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.001263754283210526</v>
+        <v>-0.001217493326027397</v>
       </c>
       <c r="D20">
-        <v>2.504721636721895</v>
+        <v>5.735696288460272</v>
       </c>
       <c r="E20">
-        <v>0.2668171258141579</v>
+        <v>2.658718304949041</v>
       </c>
       <c r="F20">
-        <v>0.001263754283210526</v>
+        <v>-0.001217493326027397</v>
       </c>
       <c r="G20">
-        <v>1.148858639121053</v>
+        <v>2.661080776717809</v>
       </c>
       <c r="H20">
-        <v>2.504721636721895</v>
+        <v>5.735696288460272</v>
       </c>
       <c r="I20">
-        <v>0.3742434583513684</v>
+        <v>-0.0003421439115068493</v>
       </c>
       <c r="J20">
-        <v>3.752783996555207</v>
+        <v>0.001198255075342465</v>
       </c>
       <c r="K20">
-        <v>2.504721636721895</v>
+        <v>5.735696288460272</v>
       </c>
       <c r="L20">
-        <v>0.2668171258141579</v>
+        <v>2.658718304949041</v>
       </c>
       <c r="M20">
-        <v>0.1340404400486842</v>
+        <v>1.328750405811507</v>
       </c>
       <c r="N20">
-        <v>0.1340404400486842</v>
+        <v>1.328750405811507</v>
       </c>
       <c r="O20">
-        <v>0.2141081128162456</v>
+        <v>0.8857195559038354</v>
       </c>
       <c r="P20">
-        <v>0.9242675056064211</v>
+        <v>2.797732366694429</v>
       </c>
       <c r="Q20">
-        <v>0.924267505606421</v>
+        <v>2.797732366694429</v>
       </c>
       <c r="R20">
-        <v>1.31938103838529</v>
+        <v>3.53222334713589</v>
       </c>
       <c r="S20">
-        <v>1.31938103838529</v>
+        <v>3.53222334713589</v>
       </c>
       <c r="T20">
-        <v>1.341448101807815</v>
+        <v>1.842522331327489</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9199036601382922</v>
+        <v>3.406934216705264</v>
       </c>
       <c r="D21">
-        <v>0.362839912010293</v>
+        <v>1.704390346540527</v>
       </c>
       <c r="E21">
-        <v>0.684111181433151</v>
+        <v>2.105215039510158</v>
       </c>
       <c r="F21">
-        <v>0.9199036601382922</v>
+        <v>3.406934216705264</v>
       </c>
       <c r="G21">
-        <v>0.7786843792056468</v>
+        <v>0.1417101855105264</v>
       </c>
       <c r="H21">
-        <v>0.362839912010293</v>
+        <v>1.704390346540527</v>
       </c>
       <c r="I21">
-        <v>1.655163882683691</v>
+        <v>0.03203719489436842</v>
       </c>
       <c r="J21">
-        <v>0.0007744251273875196</v>
+        <v>6.308808136915784</v>
       </c>
       <c r="K21">
-        <v>0.362839912010293</v>
+        <v>1.704390346540527</v>
       </c>
       <c r="L21">
-        <v>0.684111181433151</v>
+        <v>2.105215039510158</v>
       </c>
       <c r="M21">
-        <v>0.8020074207857215</v>
+        <v>2.756074628107711</v>
       </c>
       <c r="N21">
-        <v>0.8020074207857215</v>
+        <v>2.756074628107711</v>
       </c>
       <c r="O21">
-        <v>1.086392908085045</v>
+        <v>1.84806215036993</v>
       </c>
       <c r="P21">
-        <v>0.655618251193912</v>
+        <v>2.405513200918649</v>
       </c>
       <c r="Q21">
-        <v>0.655618251193912</v>
+        <v>2.405513200918649</v>
       </c>
       <c r="R21">
-        <v>0.5824236663980074</v>
+        <v>2.230232487324118</v>
       </c>
       <c r="S21">
-        <v>0.5824236663980074</v>
+        <v>2.230232487324118</v>
       </c>
       <c r="T21">
-        <v>0.7335795734330769</v>
+        <v>2.283182520012771</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9184736020164749</v>
+        <v>0.001263754283210526</v>
       </c>
       <c r="D22">
-        <v>0.3944820215644057</v>
+        <v>2.504721636721895</v>
       </c>
       <c r="E22">
-        <v>1.219059604485593</v>
+        <v>0.2668171258141579</v>
       </c>
       <c r="F22">
-        <v>0.9184736020164749</v>
+        <v>0.001263754283210526</v>
       </c>
       <c r="G22">
-        <v>0.6051932528975573</v>
+        <v>1.148858639121053</v>
       </c>
       <c r="H22">
-        <v>0.3944820215644057</v>
+        <v>2.504721636721895</v>
       </c>
       <c r="I22">
-        <v>1.105815289347597</v>
+        <v>0.3742434583513684</v>
       </c>
       <c r="J22">
-        <v>0.4993551020773961</v>
+        <v>3.752783996555207</v>
       </c>
       <c r="K22">
-        <v>0.3944820215644057</v>
+        <v>2.504721636721895</v>
       </c>
       <c r="L22">
-        <v>1.219059604485593</v>
+        <v>0.2668171258141579</v>
       </c>
       <c r="M22">
-        <v>1.068766603251034</v>
+        <v>0.1340404400486842</v>
       </c>
       <c r="N22">
-        <v>1.068766603251034</v>
+        <v>0.1340404400486842</v>
       </c>
       <c r="O22">
-        <v>1.081116165283222</v>
+        <v>0.2141081128162456</v>
       </c>
       <c r="P22">
-        <v>0.8440050760221579</v>
+        <v>0.9242675056064211</v>
       </c>
       <c r="Q22">
-        <v>0.8440050760221579</v>
+        <v>0.924267505606421</v>
       </c>
       <c r="R22">
-        <v>0.7316243124077199</v>
+        <v>1.31938103838529</v>
       </c>
       <c r="S22">
-        <v>0.7316243124077199</v>
+        <v>1.31938103838529</v>
       </c>
       <c r="T22">
-        <v>0.790396478731504</v>
+        <v>1.341448101807815</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.2732069801418922</v>
+        <v>0.9199036601382922</v>
       </c>
       <c r="D23">
-        <v>1.839021103484145</v>
+        <v>0.362839912010293</v>
       </c>
       <c r="E23">
-        <v>0.5352548914693838</v>
+        <v>0.684111181433151</v>
       </c>
       <c r="F23">
-        <v>0.2732069801418922</v>
+        <v>0.9199036601382922</v>
       </c>
       <c r="G23">
-        <v>1.076081266117525</v>
+        <v>0.7786843792056468</v>
       </c>
       <c r="H23">
-        <v>1.839021103484145</v>
+        <v>0.362839912010293</v>
       </c>
       <c r="I23">
-        <v>1.280399484863902</v>
+        <v>1.655163882683691</v>
       </c>
       <c r="J23">
-        <v>0.001005863119924909</v>
+        <v>0.0007744251273875196</v>
       </c>
       <c r="K23">
-        <v>1.839021103484145</v>
+        <v>0.362839912010293</v>
       </c>
       <c r="L23">
-        <v>0.5352548914693838</v>
+        <v>0.684111181433151</v>
       </c>
       <c r="M23">
-        <v>0.404230935805638</v>
+        <v>0.8020074207857215</v>
       </c>
       <c r="N23">
-        <v>0.404230935805638</v>
+        <v>0.8020074207857215</v>
       </c>
       <c r="O23">
-        <v>0.6962871188250591</v>
+        <v>1.086392908085045</v>
       </c>
       <c r="P23">
-        <v>0.8824943250318068</v>
+        <v>0.655618251193912</v>
       </c>
       <c r="Q23">
-        <v>0.8824943250318068</v>
+        <v>0.655618251193912</v>
       </c>
       <c r="R23">
-        <v>1.121626019644891</v>
+        <v>0.5824236663980074</v>
       </c>
       <c r="S23">
-        <v>1.121626019644891</v>
+        <v>0.5824236663980074</v>
       </c>
       <c r="T23">
-        <v>0.834161598199462</v>
+        <v>0.7335795734330769</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.59856177344524</v>
+        <v>0.9184736020164749</v>
       </c>
       <c r="D24">
-        <v>0.9996289756698536</v>
+        <v>0.3944820215644057</v>
       </c>
       <c r="E24">
-        <v>1.255764067592258</v>
+        <v>1.219059604485593</v>
       </c>
       <c r="F24">
-        <v>1.59856177344524</v>
+        <v>0.9184736020164749</v>
       </c>
       <c r="G24">
-        <v>1.063621865688289</v>
+        <v>0.6051932528975573</v>
       </c>
       <c r="H24">
-        <v>0.9996289756698536</v>
+        <v>0.3944820215644057</v>
       </c>
       <c r="I24">
-        <v>0.6971390918901105</v>
+        <v>1.105815289347597</v>
       </c>
       <c r="J24">
-        <v>0.4158280523834147</v>
+        <v>0.4993551020773961</v>
       </c>
       <c r="K24">
-        <v>0.9996289756698536</v>
+        <v>0.3944820215644057</v>
       </c>
       <c r="L24">
-        <v>1.255764067592258</v>
+        <v>1.219059604485593</v>
       </c>
       <c r="M24">
-        <v>1.427162920518749</v>
+        <v>1.068766603251034</v>
       </c>
       <c r="N24">
-        <v>1.427162920518749</v>
+        <v>1.068766603251034</v>
       </c>
       <c r="O24">
-        <v>1.183821644309203</v>
+        <v>1.081116165283222</v>
       </c>
       <c r="P24">
-        <v>1.284651605569117</v>
+        <v>0.8440050760221579</v>
       </c>
       <c r="Q24">
-        <v>1.284651605569117</v>
+        <v>0.8440050760221579</v>
       </c>
       <c r="R24">
-        <v>1.213395948094301</v>
+        <v>0.7316243124077199</v>
       </c>
       <c r="S24">
-        <v>1.213395948094301</v>
+        <v>0.7316243124077199</v>
       </c>
       <c r="T24">
-        <v>1.005090637778194</v>
+        <v>0.790396478731504</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.009567260736726157</v>
+        <v>0.2732069801418922</v>
       </c>
       <c r="D25">
-        <v>1.824281514095588</v>
+        <v>1.839021103484145</v>
       </c>
       <c r="E25">
-        <v>0.3280135574421031</v>
+        <v>0.5352548914693838</v>
       </c>
       <c r="F25">
-        <v>0.009567260736726157</v>
+        <v>0.2732069801418922</v>
       </c>
       <c r="G25">
-        <v>1.123622606426311</v>
+        <v>1.076081266117525</v>
       </c>
       <c r="H25">
-        <v>1.824281514095588</v>
+        <v>1.839021103484145</v>
       </c>
       <c r="I25">
-        <v>2.033053465443404</v>
+        <v>1.280399484863902</v>
       </c>
       <c r="J25">
-        <v>0.0009584278464718437</v>
+        <v>0.001005863119924909</v>
       </c>
       <c r="K25">
-        <v>1.824281514095588</v>
+        <v>1.839021103484145</v>
       </c>
       <c r="L25">
-        <v>0.3280135574421031</v>
+        <v>0.5352548914693838</v>
       </c>
       <c r="M25">
-        <v>0.1687904090894146</v>
+        <v>0.404230935805638</v>
       </c>
       <c r="N25">
-        <v>0.1687904090894146</v>
+        <v>0.404230935805638</v>
       </c>
       <c r="O25">
-        <v>0.7902114278740778</v>
+        <v>0.6962871188250591</v>
       </c>
       <c r="P25">
-        <v>0.7206207774248057</v>
+        <v>0.8824943250318068</v>
       </c>
       <c r="Q25">
-        <v>0.7206207774248057</v>
+        <v>0.8824943250318068</v>
       </c>
       <c r="R25">
-        <v>0.9965359615925011</v>
+        <v>1.121626019644891</v>
       </c>
       <c r="S25">
-        <v>0.9965359615925011</v>
+        <v>1.121626019644891</v>
       </c>
       <c r="T25">
-        <v>0.8865828053317674</v>
+        <v>0.834161598199462</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>3.037750486296133</v>
+        <v>1.59856177344524</v>
       </c>
       <c r="D26">
-        <v>0.3693154959894325</v>
+        <v>0.9996289756698536</v>
       </c>
       <c r="E26">
-        <v>1.365423249802593</v>
+        <v>1.255764067592258</v>
       </c>
       <c r="F26">
-        <v>3.037750486296133</v>
+        <v>1.59856177344524</v>
       </c>
       <c r="G26">
-        <v>0.963316941984917</v>
+        <v>1.063621865688289</v>
       </c>
       <c r="H26">
-        <v>0.3693154959894325</v>
+        <v>0.9996289756698536</v>
       </c>
       <c r="I26">
-        <v>0.5178178364214916</v>
+        <v>0.6971390918901105</v>
       </c>
       <c r="J26">
-        <v>0.3699512478865298</v>
+        <v>0.4158280523834147</v>
       </c>
       <c r="K26">
-        <v>0.3693154959894325</v>
+        <v>0.9996289756698536</v>
       </c>
       <c r="L26">
-        <v>1.365423249802593</v>
+        <v>1.255764067592258</v>
       </c>
       <c r="M26">
-        <v>2.201586868049363</v>
+        <v>1.427162920518749</v>
       </c>
       <c r="N26">
-        <v>2.201586868049363</v>
+        <v>1.427162920518749</v>
       </c>
       <c r="O26">
-        <v>1.640330524173406</v>
+        <v>1.183821644309203</v>
       </c>
       <c r="P26">
-        <v>1.590829744029386</v>
+        <v>1.284651605569117</v>
       </c>
       <c r="Q26">
-        <v>1.590829744029386</v>
+        <v>1.284651605569117</v>
       </c>
       <c r="R26">
-        <v>1.285451182019398</v>
+        <v>1.213395948094301</v>
       </c>
       <c r="S26">
-        <v>1.285451182019398</v>
+        <v>1.213395948094301</v>
       </c>
       <c r="T26">
-        <v>1.103929209730183</v>
+        <v>1.005090637778194</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.006187209955326678</v>
+        <v>0.009567260736726157</v>
       </c>
       <c r="D27">
-        <v>1.23463009038109</v>
+        <v>1.824281514095588</v>
       </c>
       <c r="E27">
-        <v>0.27367492584164</v>
+        <v>0.3280135574421031</v>
       </c>
       <c r="F27">
-        <v>0.006187209955326678</v>
+        <v>0.009567260736726157</v>
       </c>
       <c r="G27">
-        <v>0.6491880757340048</v>
+        <v>1.123622606426311</v>
       </c>
       <c r="H27">
-        <v>1.23463009038109</v>
+        <v>1.824281514095588</v>
       </c>
       <c r="I27">
-        <v>1.684784963766453</v>
+        <v>2.033053465443404</v>
       </c>
       <c r="J27">
-        <v>5.329798381816685</v>
+        <v>0.0009584278464718437</v>
       </c>
       <c r="K27">
-        <v>1.23463009038109</v>
+        <v>1.824281514095588</v>
       </c>
       <c r="L27">
-        <v>0.27367492584164</v>
+        <v>0.3280135574421031</v>
       </c>
       <c r="M27">
-        <v>0.1399310678984834</v>
+        <v>0.1687904090894146</v>
       </c>
       <c r="N27">
-        <v>0.1399310678984834</v>
+        <v>0.1687904090894146</v>
       </c>
       <c r="O27">
-        <v>0.6548823665211398</v>
+        <v>0.7902114278740778</v>
       </c>
       <c r="P27">
-        <v>0.5048307420593522</v>
+        <v>0.7206207774248057</v>
       </c>
       <c r="Q27">
-        <v>0.5048307420593521</v>
+        <v>0.7206207774248057</v>
       </c>
       <c r="R27">
-        <v>0.6872805791397865</v>
+        <v>0.9965359615925011</v>
       </c>
       <c r="S27">
-        <v>0.6872805791397865</v>
+        <v>0.9965359615925011</v>
       </c>
       <c r="T27">
-        <v>1.529710607915866</v>
+        <v>0.8865828053317674</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>6.074793092269696</v>
+        <v>3.037750486296133</v>
       </c>
       <c r="D28">
-        <v>0.008573179313807033</v>
+        <v>0.3693154959894325</v>
       </c>
       <c r="E28">
-        <v>0.4135879779026718</v>
+        <v>1.365423249802593</v>
       </c>
       <c r="F28">
-        <v>6.074793092269696</v>
+        <v>3.037750486296133</v>
       </c>
       <c r="G28">
-        <v>2.219038070281515</v>
+        <v>0.963316941984917</v>
       </c>
       <c r="H28">
-        <v>0.008573179313807033</v>
+        <v>0.3693154959894325</v>
       </c>
       <c r="I28">
-        <v>0.02470284403009109</v>
+        <v>0.5178178364214916</v>
       </c>
       <c r="J28">
-        <v>0.004421557724643254</v>
+        <v>0.3699512478865298</v>
       </c>
       <c r="K28">
-        <v>0.008573179313807033</v>
+        <v>0.3693154959894325</v>
       </c>
       <c r="L28">
-        <v>0.4135879779026718</v>
+        <v>1.365423249802593</v>
       </c>
       <c r="M28">
-        <v>3.244190535086184</v>
+        <v>2.201586868049363</v>
       </c>
       <c r="N28">
-        <v>3.244190535086184</v>
+        <v>2.201586868049363</v>
       </c>
       <c r="O28">
-        <v>2.171027971400819</v>
+        <v>1.640330524173406</v>
       </c>
       <c r="P28">
-        <v>2.165651416495392</v>
+        <v>1.590829744029386</v>
       </c>
       <c r="Q28">
-        <v>2.165651416495392</v>
+        <v>1.590829744029386</v>
       </c>
       <c r="R28">
-        <v>1.626381857199995</v>
+        <v>1.285451182019398</v>
       </c>
       <c r="S28">
-        <v>1.626381857199995</v>
+        <v>1.285451182019398</v>
       </c>
       <c r="T28">
-        <v>1.457519453587071</v>
+        <v>1.103929209730183</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.006187209955326678</v>
+      </c>
+      <c r="D29">
+        <v>1.23463009038109</v>
+      </c>
+      <c r="E29">
+        <v>0.27367492584164</v>
+      </c>
+      <c r="F29">
+        <v>0.006187209955326678</v>
+      </c>
+      <c r="G29">
+        <v>0.6491880757340048</v>
+      </c>
+      <c r="H29">
+        <v>1.23463009038109</v>
+      </c>
+      <c r="I29">
+        <v>1.684784963766453</v>
+      </c>
+      <c r="J29">
+        <v>5.329798381816685</v>
+      </c>
+      <c r="K29">
+        <v>1.23463009038109</v>
+      </c>
+      <c r="L29">
+        <v>0.27367492584164</v>
+      </c>
+      <c r="M29">
+        <v>0.1399310678984834</v>
+      </c>
+      <c r="N29">
+        <v>0.1399310678984834</v>
+      </c>
+      <c r="O29">
+        <v>0.6548823665211398</v>
+      </c>
+      <c r="P29">
+        <v>0.5048307420593522</v>
+      </c>
+      <c r="Q29">
+        <v>0.5048307420593521</v>
+      </c>
+      <c r="R29">
+        <v>0.6872805791397865</v>
+      </c>
+      <c r="S29">
+        <v>0.6872805791397865</v>
+      </c>
+      <c r="T29">
+        <v>1.529710607915866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>6.074793092269696</v>
+      </c>
+      <c r="D30">
+        <v>0.008573179313807033</v>
+      </c>
+      <c r="E30">
+        <v>0.4135879779026718</v>
+      </c>
+      <c r="F30">
+        <v>6.074793092269696</v>
+      </c>
+      <c r="G30">
+        <v>2.219038070281515</v>
+      </c>
+      <c r="H30">
+        <v>0.008573179313807033</v>
+      </c>
+      <c r="I30">
+        <v>0.02470284403009109</v>
+      </c>
+      <c r="J30">
+        <v>0.004421557724643254</v>
+      </c>
+      <c r="K30">
+        <v>0.008573179313807033</v>
+      </c>
+      <c r="L30">
+        <v>0.4135879779026718</v>
+      </c>
+      <c r="M30">
+        <v>3.244190535086184</v>
+      </c>
+      <c r="N30">
+        <v>3.244190535086184</v>
+      </c>
+      <c r="O30">
+        <v>2.171027971400819</v>
+      </c>
+      <c r="P30">
+        <v>2.165651416495392</v>
+      </c>
+      <c r="Q30">
+        <v>2.165651416495392</v>
+      </c>
+      <c r="R30">
+        <v>1.626381857199995</v>
+      </c>
+      <c r="S30">
+        <v>1.626381857199995</v>
+      </c>
+      <c r="T30">
+        <v>1.457519453587071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>13.66898868476806</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.01311822996340501</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.00654498621062177</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>13.66898868476806</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.7590429181262376</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.01311822996340501</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.04570814529625945</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.01078716341782978</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.01311822996340501</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.00654498621062177</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>6.837766835489342</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>6.837766835489342</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>4.573747272091648</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>4.562883966980697</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>4.562883966980697</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>3.425442532726374</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>3.425442532726374</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>2.417365021297069</v>
       </c>
     </row>
